--- a/設計仕様.xlsx
+++ b/設計仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\attendance_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3653B74-EC02-46E2-8851-F4A9A7FE9597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1B60F5-46DA-4A0B-B754-B06BD45E92F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{25B5ABE0-4654-4DEC-97A0-5DF4FCC8105B}"/>
   </bookViews>
@@ -18,7 +18,9 @@
     <sheet name="画面定義" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル定義!$A$1:$R$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">画面定義!$A$1:$P$242</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">基本仕様!$A$1:$I$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="290">
   <si>
     <t>状態</t>
     <rPh sb="0" eb="2">
@@ -57,53 +59,6 @@
     <t>　パスワードは暗号化する</t>
     <rPh sb="7" eb="10">
       <t>アンゴウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ログインをしていない状態でURL入力によるページアクセスを試みた場合、フィルターによりログイン画面に</t>
-    <rPh sb="11" eb="13">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ココロ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　強制遷移する。また、ログインしている状態でログイン画面にアクセスを試みた場合、毎ページに遷移するようにする。</t>
-    <rPh sb="1" eb="3">
-      <t>キョウセイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ココロ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3245,6 +3200,106 @@
     <rPh sb="33" eb="35">
       <t>カノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇従業員登録（従業員 新規ページ）</t>
+    <rPh sb="1" eb="4">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員 新規登録ページ</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインをしていない状態でURL入力によるページアクセスを試みた場合、フィルターにより</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ログイン画面に強制遷移する。</t>
+    <rPh sb="8" eb="10">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    また、ログインしている状態でログイン画面にアクセスした場合、毎ページに遷移する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・有給日数が足りない場合(例えば、残日数が0.5日で全休の登録を試みる)、</t>
+    <rPh sb="1" eb="3">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゼンキュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　有給が取得できない(エラーが表示される)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4100,6 +4155,18 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4139,17 +4206,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4157,26 +4215,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4196,74 +4242,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4272,27 +4285,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4328,20 +4320,83 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4387,13 +4442,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4449,13 +4504,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4511,13 +4566,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4573,13 +4628,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4635,13 +4690,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4697,13 +4752,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2930</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4750,13 +4805,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2930</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4803,13 +4858,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4856,13 +4911,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4909,13 +4964,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4962,13 +5017,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5015,7 +5070,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -5077,7 +5132,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -5139,7 +5194,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -5201,7 +5256,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -5263,7 +5318,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="328423"/>
@@ -5325,7 +5380,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
@@ -11977,7 +12032,7 @@
         <xdr:cNvPr id="95" name="四角形: 角を丸くする 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F6D353-CFEA-42AB-89A3-9609DF962331}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12033,7 +12088,7 @@
         <xdr:cNvPr id="101" name="テキスト ボックス 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFFDCEF-6260-4BCD-94FE-11FA04A242F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12137,7 +12192,7 @@
         <xdr:cNvPr id="103" name="直線矢印コネクタ 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726AFDC4-4183-4C3F-B7FA-E12486277983}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12479,10 +12534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431192BF-0F11-4D20-A686-A18BBCFEC37C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:H86"/>
+  <dimension ref="B2:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12496,7 +12551,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
@@ -12506,7 +12561,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
@@ -12516,32 +12571,32 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>12</v>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.4">
@@ -12551,474 +12606,493 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>265</v>
+      <c r="B19" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="5" t="s">
+      <c r="C23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="6" t="s">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E28" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="C28" s="3">
-        <v>3</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="4" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>27</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="84"/>
-      <c r="F41" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="69"/>
+      <c r="F42" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C43" s="3">
         <v>2</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+    </row>
+    <row r="44" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="69"/>
+      <c r="F44" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+    </row>
+    <row r="45" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="83" t="s">
+      <c r="E45" s="3"/>
+      <c r="F45" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-    </row>
-    <row r="43" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="3">
-        <v>3</v>
-      </c>
-      <c r="D43" s="84" t="s">
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+    </row>
+    <row r="46" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="3">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="84"/>
-      <c r="F43" s="81" t="s">
+      <c r="E46" s="3"/>
+      <c r="F46" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-    </row>
-    <row r="44" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="3">
-        <v>4</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="81" t="s">
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-    </row>
-    <row r="45" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C45" s="3">
-        <v>5</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C51" s="3">
         <v>1</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C51" s="3">
-        <v>2</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
+        <v>46</v>
+      </c>
+      <c r="E51" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C52" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
+        <v>47</v>
+      </c>
+      <c r="E52" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C53" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
+        <v>48</v>
+      </c>
+      <c r="E53" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
+        <v>49</v>
+      </c>
+      <c r="E54" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
       <c r="H54" s="9"/>
     </row>
     <row r="55" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C55" s="3">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C56" s="3">
         <v>6</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="9"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
+      <c r="D56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>284</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B60" s="1" t="s">
-        <v>59</v>
+      <c r="B60" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C76" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C77" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C73" s="11" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C74" s="11" t="s">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B81" s="79"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="F81" s="78"/>
+      <c r="G81" s="78"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B82" s="82"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B83" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="73"/>
+      <c r="D83" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B76" t="s">
+      <c r="F83" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" s="74"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B78" s="75"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="F78" s="74"/>
-      <c r="G78" s="74"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B79" s="78"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B80" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="69"/>
-      <c r="D80" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="70"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B82" s="72"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B84" t="s">
-        <v>68</v>
+      <c r="F84" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85" s="76"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B83:C85"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E50:G50"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F46:H46"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="B80:C82"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="B78:D79"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E54:G54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="30" max="8" man="1"/>
+    <brk id="62" max="8" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13028,1531 +13102,1711 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:Q74"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="U70" sqref="U70"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="60" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="18" max="18" width="2.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="85"/>
+      <c r="G7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89" t="s">
+      <c r="H7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="J7" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="K7" s="85"/>
+      <c r="L7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="89"/>
-      <c r="L7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
+      <c r="M7" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="86"/>
+      <c r="C8" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="87"/>
       <c r="G8" s="8"/>
       <c r="H8" s="13"/>
       <c r="I8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="86"/>
+        <v>62</v>
+      </c>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
+      <c r="M8" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="86"/>
-      <c r="E9" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="86"/>
+      <c r="C9" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="87"/>
+      <c r="E9" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="87"/>
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
+      <c r="M9" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="86"/>
+      <c r="C10" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="87"/>
+      <c r="E10" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="87"/>
       <c r="G10" s="8"/>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
       <c r="L10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
+        <v>62</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="86"/>
+      <c r="C11" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="87"/>
       <c r="G11" s="8"/>
       <c r="H11" s="13"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
+      <c r="M11" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="86"/>
+      <c r="C12" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="87"/>
+      <c r="E12" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="87"/>
       <c r="G12" s="8"/>
       <c r="H12" s="13"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
+      <c r="M12" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="86"/>
+      <c r="C13" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="87"/>
+      <c r="E13" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="87"/>
       <c r="G13" s="8"/>
       <c r="H13" s="13"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
+      <c r="M13" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="86"/>
+      <c r="C14" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="87"/>
+      <c r="E14" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="87"/>
       <c r="G14" s="8"/>
       <c r="H14" s="13"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
+      <c r="M14" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="86"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="8"/>
       <c r="H15" s="13"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="87"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
+      <c r="M15" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="86"/>
+      <c r="C16" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="87"/>
       <c r="G16" s="8"/>
       <c r="H16" s="13"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="87"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
+      <c r="M16" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="86"/>
+      <c r="C17" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="87"/>
       <c r="G17" s="8"/>
       <c r="H17" s="13"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
+      <c r="M17" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
         <v>11</v>
       </c>
-      <c r="C18" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="86"/>
+      <c r="C18" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="87"/>
       <c r="G18" s="8"/>
       <c r="H18" s="13"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="87"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
+      <c r="M18" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
         <v>12</v>
       </c>
-      <c r="C19" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="86"/>
+      <c r="C19" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="87"/>
+      <c r="E19" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="87"/>
       <c r="G19" s="8"/>
       <c r="H19" s="13"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
+      <c r="M19" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B21" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="84" t="s">
+      <c r="B21" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="85"/>
+      <c r="D21" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="85"/>
+      <c r="D22" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B22" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="85"/>
+      <c r="G24" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89" t="s">
+      <c r="H24" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="12" t="s">
+      <c r="I24" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="J24" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="K24" s="85"/>
+      <c r="L24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="89"/>
-      <c r="L24" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M24" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
+      <c r="M24" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="86"/>
+      <c r="C25" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="87"/>
+      <c r="E25" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="87"/>
       <c r="G25" s="8"/>
       <c r="H25" s="13"/>
       <c r="I25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
+        <v>62</v>
+      </c>
+      <c r="J25" s="86"/>
+      <c r="K25" s="87"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
+      <c r="M25" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" s="3">
         <v>2</v>
       </c>
-      <c r="C26" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="86"/>
+      <c r="C26" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="87"/>
+      <c r="E26" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="87"/>
       <c r="G26" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="87"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
+      <c r="M26" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="86"/>
+      <c r="C27" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="87"/>
+      <c r="E27" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="87"/>
       <c r="G27" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="87"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
+      <c r="M27" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="86"/>
+      <c r="C28" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="87"/>
+      <c r="E28" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="87"/>
       <c r="G28" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="87"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
+      <c r="M28" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
         <v>5</v>
       </c>
-      <c r="C29" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="86"/>
+      <c r="C29" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="87"/>
+      <c r="E29" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="87"/>
       <c r="G29" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
+      <c r="M29" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B30" s="3">
         <v>6</v>
       </c>
-      <c r="C30" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="86"/>
+      <c r="C30" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="87"/>
       <c r="G30" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="87"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
+      <c r="M30" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
         <v>7</v>
       </c>
-      <c r="C31" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="86"/>
+      <c r="C31" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="87"/>
+      <c r="E31" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="87"/>
       <c r="G31" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="87"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
+      <c r="M31" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" s="3">
         <v>8</v>
       </c>
-      <c r="C32" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="86"/>
+      <c r="C32" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="87"/>
+      <c r="E32" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="87"/>
       <c r="G32" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="87"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
+      <c r="M32" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" s="3">
         <v>9</v>
       </c>
-      <c r="C33" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="86"/>
+      <c r="C33" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="87"/>
+      <c r="E33" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="87"/>
       <c r="G33" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="87"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
+      <c r="M33" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" s="3">
         <v>10</v>
       </c>
-      <c r="C34" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="86"/>
-      <c r="E34" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="86"/>
+      <c r="C34" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="87"/>
+      <c r="E34" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="87"/>
       <c r="G34" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
+      <c r="M34" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" s="3">
         <v>11</v>
       </c>
-      <c r="C35" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="86"/>
-      <c r="E35" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="86"/>
+      <c r="C35" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="87"/>
+      <c r="E35" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="87"/>
       <c r="G35" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="87"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
+      <c r="M35" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" s="3">
         <v>12</v>
       </c>
-      <c r="C36" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="86"/>
+      <c r="C36" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="87"/>
+      <c r="E36" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="87"/>
       <c r="G36" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="85" t="s">
+      <c r="J36" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="K36" s="87"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B38" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="85"/>
+      <c r="D38" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B39" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="85"/>
+      <c r="D39" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="K36" s="86"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B38" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B39" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B41" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="85"/>
+      <c r="G41" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89" t="s">
+      <c r="H41" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="89"/>
-      <c r="G41" s="12" t="s">
+      <c r="I41" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="J41" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="K41" s="85"/>
+      <c r="L41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41" s="89"/>
-      <c r="L41" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M41" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
+      <c r="M41" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="86"/>
+      <c r="C42" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="87"/>
+      <c r="E42" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="87"/>
       <c r="G42" s="8"/>
       <c r="H42" s="13"/>
       <c r="I42" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J42" s="85"/>
-      <c r="K42" s="86"/>
+        <v>62</v>
+      </c>
+      <c r="J42" s="86"/>
+      <c r="K42" s="87"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
+      <c r="M42" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" s="3">
         <v>2</v>
       </c>
-      <c r="C43" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="86"/>
+      <c r="C43" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="87"/>
+      <c r="E43" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="87"/>
       <c r="G43" s="8"/>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="87"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="N43" s="90"/>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="90"/>
+      <c r="M43" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" s="3">
         <v>3</v>
       </c>
-      <c r="C44" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="86"/>
-      <c r="E44" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44" s="86"/>
+      <c r="C44" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="87"/>
+      <c r="E44" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="87"/>
       <c r="G44" s="8"/>
       <c r="H44" s="13"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="87"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="84" t="s">
+      <c r="M44" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B46" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="85"/>
+      <c r="D46" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B47" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="85"/>
+      <c r="D47" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B46" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="89"/>
-      <c r="D46" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B47" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B49" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="85"/>
+      <c r="G49" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89" t="s">
+      <c r="H49" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="89"/>
-      <c r="G49" s="12" t="s">
+      <c r="I49" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="J49" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="K49" s="85"/>
+      <c r="L49" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="K49" s="89"/>
-      <c r="L49" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M49" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="89"/>
-      <c r="Q49" s="89"/>
+      <c r="M49" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="85"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B50" s="3">
         <v>1</v>
       </c>
-      <c r="C50" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="86"/>
-      <c r="E50" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="86"/>
+      <c r="C50" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="87"/>
+      <c r="E50" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="87"/>
       <c r="G50" s="8"/>
       <c r="H50" s="13"/>
       <c r="I50" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J50" s="85"/>
-      <c r="K50" s="86"/>
+        <v>62</v>
+      </c>
+      <c r="J50" s="86"/>
+      <c r="K50" s="87"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
+      <c r="M50" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
     </row>
     <row r="51" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="3">
         <v>2</v>
       </c>
-      <c r="C51" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="86"/>
-      <c r="E51" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="86"/>
+      <c r="C51" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="87"/>
+      <c r="E51" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="87"/>
       <c r="G51" s="8"/>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="86"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="87"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
+      <c r="M51" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="N51" s="89"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
     </row>
     <row r="52" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="3">
         <v>3</v>
       </c>
-      <c r="C52" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="86"/>
-      <c r="E52" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="86"/>
+      <c r="C52" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="87"/>
+      <c r="E52" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="87"/>
       <c r="G52" s="8"/>
       <c r="H52" s="13"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="86"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="87"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="87" t="s">
+      <c r="M52" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="N52" s="90"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="90"/>
+      <c r="Q52" s="90"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B54" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="85"/>
+      <c r="D54" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B55" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="85"/>
+      <c r="D55" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B54" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B55" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B57" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="85"/>
+      <c r="G57" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89" t="s">
+      <c r="H57" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F57" s="89"/>
-      <c r="G57" s="12" t="s">
+      <c r="I57" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="J57" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="K57" s="85"/>
+      <c r="L57" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J57" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="K57" s="89"/>
-      <c r="L57" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M57" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="N57" s="89"/>
-      <c r="O57" s="89"/>
-      <c r="P57" s="89"/>
-      <c r="Q57" s="89"/>
+      <c r="M57" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="N57" s="85"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="85"/>
+      <c r="Q57" s="85"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B58" s="3">
         <v>1</v>
       </c>
-      <c r="C58" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" s="86"/>
-      <c r="E58" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" s="86"/>
+      <c r="C58" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="87"/>
+      <c r="E58" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="87"/>
       <c r="G58" s="8"/>
       <c r="H58" s="13"/>
       <c r="I58" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J58" s="85"/>
-      <c r="K58" s="86"/>
+        <v>62</v>
+      </c>
+      <c r="J58" s="86"/>
+      <c r="K58" s="87"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
+      <c r="M58" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="69"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B59" s="3">
         <v>2</v>
       </c>
-      <c r="C59" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="86"/>
-      <c r="E59" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="86"/>
+      <c r="C59" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="87"/>
+      <c r="E59" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="87"/>
       <c r="G59" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="86"/>
+      <c r="J59" s="86"/>
+      <c r="K59" s="87"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
+      <c r="M59" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="N59" s="89"/>
+      <c r="O59" s="89"/>
+      <c r="P59" s="89"/>
+      <c r="Q59" s="89"/>
     </row>
     <row r="60" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="3">
         <v>3</v>
       </c>
-      <c r="C60" s="85" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="86"/>
-      <c r="E60" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="86"/>
+      <c r="C60" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="87"/>
+      <c r="E60" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="87"/>
       <c r="G60" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="86"/>
+      <c r="J60" s="86"/>
+      <c r="K60" s="87"/>
       <c r="L60" s="8"/>
-      <c r="M60" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="N60" s="87"/>
-      <c r="O60" s="87"/>
-      <c r="P60" s="87"/>
-      <c r="Q60" s="87"/>
+      <c r="M60" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="N60" s="90"/>
+      <c r="O60" s="90"/>
+      <c r="P60" s="90"/>
+      <c r="Q60" s="90"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B61" s="3">
         <v>4</v>
       </c>
-      <c r="C61" s="85" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="86"/>
-      <c r="E61" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="86"/>
+      <c r="C61" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="87"/>
+      <c r="E61" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="87"/>
       <c r="G61" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="86"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="87"/>
       <c r="L61" s="8"/>
-      <c r="M61" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="N61" s="87"/>
-      <c r="O61" s="87"/>
-      <c r="P61" s="87"/>
-      <c r="Q61" s="87"/>
+      <c r="M61" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="N61" s="90"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="90"/>
+      <c r="Q61" s="90"/>
     </row>
     <row r="62" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="3">
         <v>5</v>
       </c>
-      <c r="C62" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="86"/>
-      <c r="E62" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="86"/>
+      <c r="C62" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="87"/>
+      <c r="E62" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="87"/>
       <c r="G62" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="8"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="87"/>
       <c r="L62" s="8"/>
-      <c r="M62" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="N62" s="87"/>
-      <c r="O62" s="87"/>
-      <c r="P62" s="87"/>
-      <c r="Q62" s="87"/>
+      <c r="M62" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="N62" s="90"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="90"/>
+      <c r="Q62" s="90"/>
     </row>
     <row r="63" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="14">
         <v>6</v>
       </c>
-      <c r="C63" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="F63" s="84"/>
+      <c r="C63" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="69"/>
       <c r="G63" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="N63" s="87"/>
-      <c r="O63" s="87"/>
-      <c r="P63" s="87"/>
-      <c r="Q63" s="87"/>
+      <c r="M63" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B65" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
+      <c r="B65" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="85"/>
+      <c r="D65" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B66" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="84" t="s">
-        <v>269</v>
-      </c>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
+      <c r="B66" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="85"/>
+      <c r="D66" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B68" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="85"/>
+      <c r="G68" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89" t="s">
+      <c r="H68" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="89"/>
-      <c r="G68" s="12" t="s">
+      <c r="I68" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="J68" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="K68" s="85"/>
+      <c r="L68" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J68" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="K68" s="89"/>
-      <c r="L68" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M68" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="N68" s="89"/>
-      <c r="O68" s="89"/>
-      <c r="P68" s="89"/>
-      <c r="Q68" s="89"/>
+      <c r="M68" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="N68" s="85"/>
+      <c r="O68" s="85"/>
+      <c r="P68" s="85"/>
+      <c r="Q68" s="85"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B69" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="86"/>
-      <c r="E69" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" s="86"/>
+      <c r="C69" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="87"/>
+      <c r="E69" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" s="87"/>
       <c r="G69" s="8"/>
       <c r="H69" s="13"/>
       <c r="I69" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J69" s="85"/>
-      <c r="K69" s="86"/>
+        <v>62</v>
+      </c>
+      <c r="J69" s="86"/>
+      <c r="K69" s="87"/>
       <c r="L69" s="3"/>
-      <c r="M69" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
+      <c r="M69" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N69" s="69"/>
+      <c r="O69" s="69"/>
+      <c r="P69" s="69"/>
+      <c r="Q69" s="69"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B70" s="3">
         <v>2</v>
       </c>
-      <c r="C70" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" s="86"/>
-      <c r="E70" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="86"/>
+      <c r="C70" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="87"/>
+      <c r="E70" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" s="87"/>
       <c r="G70" s="8"/>
       <c r="H70" s="13"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="85"/>
-      <c r="K70" s="86"/>
+      <c r="J70" s="86"/>
+      <c r="K70" s="87"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="88" t="s">
-        <v>278</v>
-      </c>
-      <c r="N70" s="88"/>
-      <c r="O70" s="88"/>
-      <c r="P70" s="88"/>
-      <c r="Q70" s="88"/>
+      <c r="M70" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="N70" s="89"/>
+      <c r="O70" s="89"/>
+      <c r="P70" s="89"/>
+      <c r="Q70" s="89"/>
     </row>
     <row r="71" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="3">
         <v>3</v>
       </c>
-      <c r="C71" s="85" t="s">
+      <c r="C71" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="87"/>
+      <c r="E71" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="86"/>
-      <c r="E71" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F71" s="86"/>
+      <c r="F71" s="87"/>
       <c r="G71" s="8"/>
       <c r="H71" s="13"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="85"/>
-      <c r="K71" s="86"/>
+      <c r="J71" s="86"/>
+      <c r="K71" s="87"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="84" t="s">
-        <v>273</v>
-      </c>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
+      <c r="M71" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="69"/>
+      <c r="Q71" s="69"/>
     </row>
     <row r="72" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="3">
         <v>4</v>
       </c>
-      <c r="C72" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="D72" s="86"/>
-      <c r="E72" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F72" s="86"/>
+      <c r="C72" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="87"/>
+      <c r="E72" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="87"/>
       <c r="G72" s="8"/>
       <c r="H72" s="13"/>
       <c r="I72" s="8"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="86"/>
+      <c r="J72" s="86"/>
+      <c r="K72" s="87"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="84" t="s">
-        <v>274</v>
-      </c>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
+      <c r="M72" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="N72" s="69"/>
+      <c r="O72" s="69"/>
+      <c r="P72" s="69"/>
+      <c r="Q72" s="69"/>
     </row>
     <row r="73" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="3">
         <v>5</v>
       </c>
-      <c r="C73" s="85" t="s">
-        <v>271</v>
-      </c>
-      <c r="D73" s="86"/>
-      <c r="E73" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F73" s="86"/>
+      <c r="C73" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="87"/>
+      <c r="E73" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="87"/>
       <c r="G73" s="8"/>
       <c r="H73" s="13"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="85"/>
-      <c r="K73" s="86"/>
+      <c r="J73" s="86"/>
+      <c r="K73" s="87"/>
       <c r="L73" s="8"/>
-      <c r="M73" s="87" t="s">
-        <v>275</v>
-      </c>
-      <c r="N73" s="87"/>
-      <c r="O73" s="87"/>
-      <c r="P73" s="87"/>
-      <c r="Q73" s="87"/>
+      <c r="M73" s="90" t="s">
+        <v>273</v>
+      </c>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="90"/>
     </row>
     <row r="74" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="14">
         <v>6</v>
       </c>
-      <c r="C74" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="D74" s="84"/>
-      <c r="E74" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="F74" s="86"/>
+      <c r="C74" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="69"/>
+      <c r="E74" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="87"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="84"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="N74" s="87"/>
-      <c r="O74" s="87"/>
-      <c r="P74" s="87"/>
-      <c r="Q74" s="87"/>
+      <c r="M74" s="90" t="s">
+        <v>274</v>
+      </c>
+      <c r="N74" s="90"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="90"/>
+      <c r="Q74" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="M73:Q73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="M74:Q74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="M71:Q71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="M72:Q72"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="M70:Q70"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="M68:Q68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:Q63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:Q61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:Q59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:Q60"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:Q51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:Q52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:Q50"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:Q43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:Q44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:Q41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:Q42"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:Q14"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="J11:K11"/>
@@ -14569,197 +14823,28 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:Q43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:Q44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:Q41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:Q42"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:Q51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:Q52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:Q50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:Q59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:Q60"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:Q63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:Q61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="M70:Q70"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="M68:Q68"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="M73:Q73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="M74:Q74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="M71:Q71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="M72:Q72"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="M69:Q69"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="20" max="16383" man="1"/>
+    <brk id="37" max="17" man="1"/>
+    <brk id="53" max="17" man="1"/>
+    <brk id="64" max="17" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -14768,8 +14853,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:R241"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A139" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T76" sqref="T76"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A235" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="U167" sqref="U167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14782,12 +14867,12 @@
   <sheetData>
     <row r="2" spans="2:15" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
@@ -14808,17 +14893,17 @@
     </row>
     <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="22"/>
-      <c r="C6" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
+      <c r="C6" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
@@ -14826,15 +14911,15 @@
     </row>
     <row r="7" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="22"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
@@ -14842,15 +14927,15 @@
     </row>
     <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="22"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
       <c r="L8" s="25"/>
       <c r="M8" s="23"/>
       <c r="N8" s="30"/>
@@ -14875,7 +14960,7 @@
     <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22"/>
       <c r="C10" s="40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="35"/>
@@ -14924,14 +15009,14 @@
     </row>
     <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="18"/>
-      <c r="C13" s="145" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
+      <c r="C13" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="101"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -14942,9 +15027,9 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B14" s="18"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="148"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -14975,7 +15060,7 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14992,9 +15077,9 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="18"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -15025,7 +15110,7 @@
     <row r="19" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="18"/>
       <c r="C19" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -15153,42 +15238,42 @@
       <c r="O26" s="19"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="96"/>
+      <c r="B27" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="93"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="97"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="99"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="96"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.4">
@@ -15209,17 +15294,17 @@
     </row>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="22"/>
-      <c r="C33" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
+      <c r="C33" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
       <c r="L33" s="23"/>
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
@@ -15227,15 +15312,15 @@
     </row>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="22"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
       <c r="L34" s="23"/>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
@@ -15243,20 +15328,20 @@
     </row>
     <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="22"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="102"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
       <c r="L35" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M35" s="64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N35" s="30"/>
       <c r="O35" s="24"/>
@@ -15280,16 +15365,16 @@
     <row r="37" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="22"/>
       <c r="C37" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="45" t="s">
         <v>162</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="45" t="s">
-        <v>164</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
@@ -15319,12 +15404,12 @@
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="22"/>
-      <c r="C39" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
+      <c r="C39" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
@@ -15337,12 +15422,12 @@
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="18"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
@@ -15353,10 +15438,10 @@
     </row>
     <row r="41" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="18"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
@@ -15401,9 +15486,9 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B44" s="18"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -15560,42 +15645,42 @@
       <c r="O53" s="19"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B54" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="95"/>
-      <c r="M54" s="95"/>
-      <c r="N54" s="95"/>
-      <c r="O54" s="96"/>
+      <c r="B54" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
+      <c r="M54" s="92"/>
+      <c r="N54" s="92"/>
+      <c r="O54" s="93"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B55" s="97"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="98"/>
-      <c r="L55" s="98"/>
-      <c r="M55" s="98"/>
-      <c r="N55" s="98"/>
-      <c r="O55" s="99"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="95"/>
+      <c r="M55" s="95"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="96"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.4">
@@ -15616,17 +15701,17 @@
     </row>
     <row r="60" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="22"/>
-      <c r="C60" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="102"/>
-      <c r="I60" s="102"/>
-      <c r="J60" s="102"/>
-      <c r="K60" s="102"/>
+      <c r="C60" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="98"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="98"/>
+      <c r="K60" s="98"/>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
@@ -15634,15 +15719,15 @@
     </row>
     <row r="61" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="22"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="102"/>
-      <c r="I61" s="102"/>
-      <c r="J61" s="102"/>
-      <c r="K61" s="102"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="98"/>
+      <c r="K61" s="98"/>
       <c r="L61" s="23"/>
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
@@ -15650,20 +15735,20 @@
     </row>
     <row r="62" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="22"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="102"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="98"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="98"/>
+      <c r="K62" s="98"/>
       <c r="L62" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M62" s="64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N62" s="30"/>
       <c r="O62" s="24"/>
@@ -15687,16 +15772,16 @@
     <row r="64" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="22"/>
       <c r="C64" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="45" t="s">
         <v>162</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>164</v>
       </c>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
@@ -15729,7 +15814,7 @@
       <c r="C66" s="20"/>
       <c r="D66" s="51"/>
       <c r="E66" s="52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
@@ -15743,26 +15828,26 @@
       <c r="O66" s="53"/>
     </row>
     <row r="67" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" s="134"/>
-      <c r="D67" s="135"/>
-      <c r="E67" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="F67" s="137"/>
+      <c r="B67" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="113"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="F67" s="116"/>
       <c r="G67" s="54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H67" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I67" s="54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J67" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K67" s="20"/>
       <c r="L67" s="20"/>
@@ -15771,25 +15856,25 @@
       <c r="O67" s="53"/>
     </row>
     <row r="68" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="133"/>
-      <c r="C68" s="134"/>
-      <c r="D68" s="135"/>
-      <c r="E68" s="136"/>
-      <c r="F68" s="137"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="116"/>
       <c r="G68" s="56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H68" s="55">
         <v>100.5</v>
       </c>
       <c r="I68" s="57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J68" s="55">
         <v>20</v>
       </c>
       <c r="K68" s="58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L68" s="55">
         <v>0</v>
@@ -15799,19 +15884,19 @@
       <c r="O68" s="53"/>
     </row>
     <row r="69" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="133"/>
-      <c r="C69" s="134"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="136"/>
-      <c r="F69" s="137"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="116"/>
       <c r="G69" s="56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H69" s="55">
         <v>3.5</v>
       </c>
       <c r="I69" s="56" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J69" s="55">
         <v>16.5</v>
@@ -15824,15 +15909,15 @@
     </row>
     <row r="70" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B70" s="50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="51"/>
       <c r="E70" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -15850,25 +15935,25 @@
       <c r="D71" s="51"/>
       <c r="E71" s="59"/>
       <c r="F71" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="H71" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="G71" s="60" t="s">
+      <c r="I71" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="H71" s="60" t="s">
+      <c r="J71" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="I71" s="60" t="s">
+      <c r="K71" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="J71" s="60" t="s">
+      <c r="L71" s="60" t="s">
         <v>178</v>
-      </c>
-      <c r="K71" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="L71" s="60" t="s">
-        <v>180</v>
       </c>
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
@@ -15879,16 +15964,16 @@
       <c r="C72" s="20"/>
       <c r="D72" s="51"/>
       <c r="E72" s="20"/>
-      <c r="F72" s="138"/>
-      <c r="G72" s="141"/>
-      <c r="H72" s="141"/>
-      <c r="I72" s="141"/>
-      <c r="J72" s="141"/>
-      <c r="K72" s="123" t="s">
-        <v>209</v>
-      </c>
-      <c r="L72" s="130" t="s">
-        <v>208</v>
+      <c r="F72" s="117"/>
+      <c r="G72" s="120"/>
+      <c r="H72" s="120"/>
+      <c r="I72" s="120"/>
+      <c r="J72" s="120"/>
+      <c r="K72" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="L72" s="106" t="s">
+        <v>206</v>
       </c>
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
@@ -15896,18 +15981,18 @@
     </row>
     <row r="73" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C73" s="20"/>
       <c r="D73" s="51"/>
       <c r="E73" s="20"/>
-      <c r="F73" s="139"/>
-      <c r="G73" s="142"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="142"/>
-      <c r="J73" s="142"/>
-      <c r="K73" s="124"/>
-      <c r="L73" s="131"/>
+      <c r="F73" s="118"/>
+      <c r="G73" s="121"/>
+      <c r="H73" s="121"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="121"/>
+      <c r="K73" s="110"/>
+      <c r="L73" s="107"/>
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
       <c r="O73" s="53"/>
@@ -15917,13 +16002,13 @@
       <c r="C74" s="20"/>
       <c r="D74" s="51"/>
       <c r="E74" s="20"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="143"/>
-      <c r="H74" s="143"/>
-      <c r="I74" s="143"/>
-      <c r="J74" s="143"/>
-      <c r="K74" s="125"/>
-      <c r="L74" s="132"/>
+      <c r="F74" s="119"/>
+      <c r="G74" s="122"/>
+      <c r="H74" s="122"/>
+      <c r="I74" s="122"/>
+      <c r="J74" s="122"/>
+      <c r="K74" s="111"/>
+      <c r="L74" s="108"/>
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
       <c r="O74" s="53"/>
@@ -15933,26 +16018,26 @@
       <c r="C75" s="20"/>
       <c r="D75" s="51"/>
       <c r="E75" s="20"/>
-      <c r="F75" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="G75" s="123" t="s">
+      <c r="F75" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="G75" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="H75" s="109" t="s">
+        <v>209</v>
+      </c>
+      <c r="I75" s="109" t="s">
         <v>210</v>
       </c>
-      <c r="H75" s="123" t="s">
+      <c r="J75" s="109" t="s">
         <v>211</v>
       </c>
-      <c r="I75" s="123" t="s">
+      <c r="K75" s="109" t="s">
         <v>212</v>
       </c>
-      <c r="J75" s="123" t="s">
+      <c r="L75" s="109" t="s">
         <v>213</v>
-      </c>
-      <c r="K75" s="123" t="s">
-        <v>214</v>
-      </c>
-      <c r="L75" s="123" t="s">
-        <v>215</v>
       </c>
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
@@ -15963,31 +16048,31 @@
       <c r="C76" s="20"/>
       <c r="D76" s="51"/>
       <c r="E76" s="20"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="124"/>
-      <c r="J76" s="124"/>
-      <c r="K76" s="124"/>
-      <c r="L76" s="124"/>
+      <c r="F76" s="110"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="110"/>
+      <c r="I76" s="110"/>
+      <c r="J76" s="110"/>
+      <c r="K76" s="110"/>
+      <c r="L76" s="110"/>
       <c r="M76" s="20"/>
       <c r="N76" s="20"/>
       <c r="O76" s="53"/>
     </row>
     <row r="77" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="51"/>
       <c r="E77" s="20"/>
-      <c r="F77" s="125"/>
-      <c r="G77" s="125"/>
-      <c r="H77" s="125"/>
-      <c r="I77" s="125"/>
-      <c r="J77" s="125"/>
-      <c r="K77" s="125"/>
-      <c r="L77" s="125"/>
+      <c r="F77" s="111"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="111"/>
       <c r="M77" s="20"/>
       <c r="N77" s="20"/>
       <c r="O77" s="53"/>
@@ -15997,26 +16082,26 @@
       <c r="C78" s="20"/>
       <c r="D78" s="51"/>
       <c r="E78" s="20"/>
-      <c r="F78" s="123" t="s">
-        <v>201</v>
-      </c>
-      <c r="G78" s="126" t="s">
+      <c r="F78" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="G78" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="H78" s="123" t="s">
+        <v>182</v>
+      </c>
+      <c r="I78" s="123" t="s">
         <v>183</v>
       </c>
-      <c r="H78" s="126" t="s">
+      <c r="J78" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="I78" s="126" t="s">
+      <c r="K78" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="J78" s="126" t="s">
-        <v>186</v>
-      </c>
-      <c r="K78" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="L78" s="123" t="s">
-        <v>207</v>
+      <c r="L78" s="109" t="s">
+        <v>205</v>
       </c>
       <c r="M78" s="20"/>
       <c r="N78" s="20"/>
@@ -16027,13 +16112,13 @@
       <c r="C79" s="20"/>
       <c r="D79" s="51"/>
       <c r="E79" s="20"/>
-      <c r="F79" s="124"/>
-      <c r="G79" s="128"/>
-      <c r="H79" s="128"/>
-      <c r="I79" s="128"/>
-      <c r="J79" s="128"/>
-      <c r="K79" s="128"/>
-      <c r="L79" s="124"/>
+      <c r="F79" s="110"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="124"/>
+      <c r="I79" s="124"/>
+      <c r="J79" s="124"/>
+      <c r="K79" s="124"/>
+      <c r="L79" s="110"/>
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
       <c r="O79" s="53"/>
@@ -16043,13 +16128,13 @@
       <c r="C80" s="20"/>
       <c r="D80" s="51"/>
       <c r="E80" s="20"/>
-      <c r="F80" s="125"/>
-      <c r="G80" s="129"/>
-      <c r="H80" s="129"/>
-      <c r="I80" s="129"/>
-      <c r="J80" s="129"/>
-      <c r="K80" s="129"/>
-      <c r="L80" s="125"/>
+      <c r="F80" s="111"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="125"/>
+      <c r="I80" s="125"/>
+      <c r="J80" s="125"/>
+      <c r="K80" s="125"/>
+      <c r="L80" s="111"/>
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
       <c r="O80" s="53"/>
@@ -16059,26 +16144,26 @@
       <c r="C81" s="20"/>
       <c r="D81" s="51"/>
       <c r="E81" s="20"/>
-      <c r="F81" s="123" t="s">
-        <v>202</v>
-      </c>
-      <c r="G81" s="126" t="s">
+      <c r="F81" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="G81" s="123" t="s">
+        <v>186</v>
+      </c>
+      <c r="H81" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="I81" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="H81" s="126" t="s">
+      <c r="J81" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="I81" s="126" t="s">
+      <c r="K81" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="J81" s="126" t="s">
-        <v>191</v>
-      </c>
-      <c r="K81" s="126" t="s">
-        <v>192</v>
-      </c>
-      <c r="L81" s="123" t="s">
-        <v>205</v>
+      <c r="L81" s="109" t="s">
+        <v>203</v>
       </c>
       <c r="M81" s="20"/>
       <c r="N81" s="20"/>
@@ -16089,13 +16174,13 @@
       <c r="C82" s="20"/>
       <c r="D82" s="51"/>
       <c r="E82" s="20"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="124"/>
-      <c r="I82" s="124"/>
-      <c r="J82" s="124"/>
-      <c r="K82" s="124"/>
-      <c r="L82" s="124"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="110"/>
+      <c r="H82" s="110"/>
+      <c r="I82" s="110"/>
+      <c r="J82" s="110"/>
+      <c r="K82" s="110"/>
+      <c r="L82" s="110"/>
       <c r="M82" s="20"/>
       <c r="N82" s="20"/>
       <c r="O82" s="53"/>
@@ -16105,13 +16190,13 @@
       <c r="C83" s="20"/>
       <c r="D83" s="51"/>
       <c r="E83" s="20"/>
-      <c r="F83" s="125"/>
-      <c r="G83" s="125"/>
-      <c r="H83" s="125"/>
-      <c r="I83" s="125"/>
-      <c r="J83" s="125"/>
-      <c r="K83" s="125"/>
-      <c r="L83" s="125"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="111"/>
+      <c r="I83" s="111"/>
+      <c r="J83" s="111"/>
+      <c r="K83" s="111"/>
+      <c r="L83" s="111"/>
       <c r="M83" s="20"/>
       <c r="N83" s="20"/>
       <c r="O83" s="53"/>
@@ -16121,26 +16206,26 @@
       <c r="C84" s="20"/>
       <c r="D84" s="51"/>
       <c r="E84" s="20"/>
-      <c r="F84" s="123" t="s">
-        <v>203</v>
-      </c>
-      <c r="G84" s="126" t="s">
+      <c r="F84" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="G84" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="H84" s="123" t="s">
+        <v>192</v>
+      </c>
+      <c r="I84" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="H84" s="126" t="s">
+      <c r="J84" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="I84" s="126" t="s">
+      <c r="K84" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="J84" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="K84" s="126" t="s">
-        <v>197</v>
-      </c>
-      <c r="L84" s="123" t="s">
-        <v>206</v>
+      <c r="L84" s="109" t="s">
+        <v>204</v>
       </c>
       <c r="M84" s="20"/>
       <c r="N84" s="20"/>
@@ -16151,13 +16236,13 @@
       <c r="C85" s="20"/>
       <c r="D85" s="51"/>
       <c r="E85" s="20"/>
-      <c r="F85" s="124"/>
-      <c r="G85" s="128"/>
-      <c r="H85" s="128"/>
-      <c r="I85" s="128"/>
-      <c r="J85" s="128"/>
-      <c r="K85" s="128"/>
-      <c r="L85" s="124"/>
+      <c r="F85" s="110"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="124"/>
+      <c r="J85" s="124"/>
+      <c r="K85" s="124"/>
+      <c r="L85" s="110"/>
       <c r="M85" s="20"/>
       <c r="N85" s="20"/>
       <c r="O85" s="53"/>
@@ -16167,13 +16252,13 @@
       <c r="C86" s="20"/>
       <c r="D86" s="51"/>
       <c r="E86" s="20"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="129"/>
-      <c r="H86" s="129"/>
-      <c r="I86" s="129"/>
-      <c r="J86" s="129"/>
-      <c r="K86" s="129"/>
-      <c r="L86" s="125"/>
+      <c r="F86" s="111"/>
+      <c r="G86" s="125"/>
+      <c r="H86" s="125"/>
+      <c r="I86" s="125"/>
+      <c r="J86" s="125"/>
+      <c r="K86" s="125"/>
+      <c r="L86" s="111"/>
       <c r="M86" s="20"/>
       <c r="N86" s="20"/>
       <c r="O86" s="53"/>
@@ -16183,15 +16268,15 @@
       <c r="C87" s="20"/>
       <c r="D87" s="51"/>
       <c r="E87" s="20"/>
-      <c r="F87" s="123" t="s">
-        <v>204</v>
-      </c>
-      <c r="G87" s="126"/>
-      <c r="H87" s="127"/>
-      <c r="I87" s="127"/>
-      <c r="J87" s="127"/>
-      <c r="K87" s="127"/>
-      <c r="L87" s="127"/>
+      <c r="F87" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="G87" s="123"/>
+      <c r="H87" s="126"/>
+      <c r="I87" s="126"/>
+      <c r="J87" s="126"/>
+      <c r="K87" s="126"/>
+      <c r="L87" s="126"/>
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
       <c r="O87" s="53"/>
@@ -16201,13 +16286,13 @@
       <c r="C88" s="20"/>
       <c r="D88" s="51"/>
       <c r="E88" s="20"/>
-      <c r="F88" s="124"/>
-      <c r="G88" s="124"/>
-      <c r="H88" s="127"/>
-      <c r="I88" s="127"/>
-      <c r="J88" s="127"/>
-      <c r="K88" s="127"/>
-      <c r="L88" s="127"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="110"/>
+      <c r="H88" s="126"/>
+      <c r="I88" s="126"/>
+      <c r="J88" s="126"/>
+      <c r="K88" s="126"/>
+      <c r="L88" s="126"/>
       <c r="M88" s="20"/>
       <c r="N88" s="20"/>
       <c r="O88" s="53"/>
@@ -16217,13 +16302,13 @@
       <c r="C89" s="20"/>
       <c r="D89" s="51"/>
       <c r="E89" s="20"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="127"/>
-      <c r="I89" s="127"/>
-      <c r="J89" s="127"/>
-      <c r="K89" s="127"/>
-      <c r="L89" s="127"/>
+      <c r="F89" s="111"/>
+      <c r="G89" s="111"/>
+      <c r="H89" s="126"/>
+      <c r="I89" s="126"/>
+      <c r="J89" s="126"/>
+      <c r="K89" s="126"/>
+      <c r="L89" s="126"/>
       <c r="M89" s="20"/>
       <c r="N89" s="20"/>
       <c r="O89" s="53"/>
@@ -16245,42 +16330,42 @@
       <c r="O90" s="53"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B91" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="95"/>
-      <c r="D91" s="95"/>
-      <c r="E91" s="95"/>
-      <c r="F91" s="95"/>
-      <c r="G91" s="95"/>
-      <c r="H91" s="95"/>
-      <c r="I91" s="95"/>
-      <c r="J91" s="95"/>
-      <c r="K91" s="95"/>
-      <c r="L91" s="95"/>
-      <c r="M91" s="95"/>
-      <c r="N91" s="95"/>
-      <c r="O91" s="118"/>
+      <c r="B91" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" s="92"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="92"/>
+      <c r="I91" s="92"/>
+      <c r="J91" s="92"/>
+      <c r="K91" s="92"/>
+      <c r="L91" s="92"/>
+      <c r="M91" s="92"/>
+      <c r="N91" s="92"/>
+      <c r="O91" s="128"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B92" s="119"/>
-      <c r="C92" s="120"/>
-      <c r="D92" s="120"/>
-      <c r="E92" s="120"/>
-      <c r="F92" s="120"/>
-      <c r="G92" s="120"/>
-      <c r="H92" s="120"/>
-      <c r="I92" s="120"/>
-      <c r="J92" s="120"/>
-      <c r="K92" s="120"/>
-      <c r="L92" s="120"/>
-      <c r="M92" s="120"/>
-      <c r="N92" s="120"/>
-      <c r="O92" s="121"/>
+      <c r="B92" s="129"/>
+      <c r="C92" s="130"/>
+      <c r="D92" s="130"/>
+      <c r="E92" s="130"/>
+      <c r="F92" s="130"/>
+      <c r="G92" s="130"/>
+      <c r="H92" s="130"/>
+      <c r="I92" s="130"/>
+      <c r="J92" s="130"/>
+      <c r="K92" s="130"/>
+      <c r="L92" s="130"/>
+      <c r="M92" s="130"/>
+      <c r="N92" s="130"/>
+      <c r="O92" s="131"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.4">
@@ -16301,17 +16386,17 @@
     </row>
     <row r="97" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="22"/>
-      <c r="C97" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="D97" s="102"/>
-      <c r="E97" s="102"/>
-      <c r="F97" s="102"/>
-      <c r="G97" s="102"/>
-      <c r="H97" s="102"/>
-      <c r="I97" s="102"/>
-      <c r="J97" s="102"/>
-      <c r="K97" s="102"/>
+      <c r="C97" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" s="98"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98"/>
+      <c r="G97" s="98"/>
+      <c r="H97" s="98"/>
+      <c r="I97" s="98"/>
+      <c r="J97" s="98"/>
+      <c r="K97" s="98"/>
       <c r="L97" s="23"/>
       <c r="M97" s="23"/>
       <c r="N97" s="23"/>
@@ -16319,15 +16404,15 @@
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="22"/>
-      <c r="C98" s="102"/>
-      <c r="D98" s="102"/>
-      <c r="E98" s="102"/>
-      <c r="F98" s="102"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="102"/>
-      <c r="I98" s="102"/>
-      <c r="J98" s="102"/>
-      <c r="K98" s="102"/>
+      <c r="C98" s="98"/>
+      <c r="D98" s="98"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="98"/>
+      <c r="G98" s="98"/>
+      <c r="H98" s="98"/>
+      <c r="I98" s="98"/>
+      <c r="J98" s="98"/>
+      <c r="K98" s="98"/>
       <c r="L98" s="23"/>
       <c r="M98" s="23"/>
       <c r="N98" s="23"/>
@@ -16335,20 +16420,20 @@
     </row>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B99" s="22"/>
-      <c r="C99" s="102"/>
-      <c r="D99" s="102"/>
-      <c r="E99" s="102"/>
-      <c r="F99" s="102"/>
-      <c r="G99" s="102"/>
-      <c r="H99" s="102"/>
-      <c r="I99" s="102"/>
-      <c r="J99" s="102"/>
-      <c r="K99" s="102"/>
+      <c r="C99" s="98"/>
+      <c r="D99" s="98"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="98"/>
+      <c r="G99" s="98"/>
+      <c r="H99" s="98"/>
+      <c r="I99" s="98"/>
+      <c r="J99" s="98"/>
+      <c r="K99" s="98"/>
       <c r="L99" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M99" s="64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N99" s="30"/>
       <c r="O99" s="24"/>
@@ -16372,16 +16457,16 @@
     <row r="101" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="22"/>
       <c r="C101" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F101" s="45" t="s">
         <v>162</v>
-      </c>
-      <c r="D101" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E101" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="F101" s="45" t="s">
-        <v>164</v>
       </c>
       <c r="G101" s="34"/>
       <c r="H101" s="34"/>
@@ -16411,12 +16496,12 @@
     </row>
     <row r="103" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="22"/>
-      <c r="C103" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="D103" s="103"/>
-      <c r="E103" s="103"/>
-      <c r="F103" s="103"/>
+      <c r="C103" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="D103" s="97"/>
+      <c r="E103" s="97"/>
+      <c r="F103" s="97"/>
       <c r="G103" s="31"/>
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
@@ -16429,12 +16514,12 @@
     </row>
     <row r="104" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="18"/>
-      <c r="C104" s="103"/>
-      <c r="D104" s="103"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="103"/>
-      <c r="G104" s="116"/>
-      <c r="H104" s="116"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="97"/>
+      <c r="F104" s="97"/>
+      <c r="G104" s="99"/>
+      <c r="H104" s="99"/>
       <c r="I104" s="20"/>
       <c r="J104" s="20"/>
       <c r="K104" s="20"/>
@@ -16445,10 +16530,10 @@
     </row>
     <row r="105" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="18"/>
-      <c r="C105" s="103"/>
-      <c r="D105" s="103"/>
-      <c r="E105" s="103"/>
-      <c r="F105" s="103"/>
+      <c r="C105" s="97"/>
+      <c r="D105" s="97"/>
+      <c r="E105" s="97"/>
+      <c r="F105" s="97"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
       <c r="I105" s="20"/>
@@ -16462,56 +16547,56 @@
     <row r="106" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B106" s="18"/>
       <c r="C106" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" s="132" t="s">
+        <v>217</v>
+      </c>
+      <c r="E106" s="132"/>
+      <c r="F106" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D106" s="122" t="s">
+      <c r="G106" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="E106" s="122"/>
-      <c r="F106" s="62" t="s">
+      <c r="H106" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="I106" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="G106" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="H106" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I106" s="62" t="s">
-        <v>222</v>
-      </c>
       <c r="J106" s="62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K106" s="62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L106" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="M106" s="122" t="s">
-        <v>223</v>
-      </c>
-      <c r="N106" s="122"/>
+      <c r="M106" s="132" t="s">
+        <v>221</v>
+      </c>
+      <c r="N106" s="132"/>
       <c r="O106" s="61"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B107" s="18"/>
       <c r="C107" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="E107" s="105"/>
+      <c r="F107" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="G107" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="D107" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="E107" s="115"/>
-      <c r="F107" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="G107" s="32" t="s">
-        <v>226</v>
-      </c>
       <c r="H107" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I107" s="32">
         <v>8</v>
@@ -16523,29 +16608,29 @@
         <v>0</v>
       </c>
       <c r="L107" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="M107" s="115"/>
-      <c r="N107" s="115"/>
+        <v>226</v>
+      </c>
+      <c r="M107" s="105"/>
+      <c r="N107" s="105"/>
       <c r="O107" s="19"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B108" s="18"/>
       <c r="C108" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="D108" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="E108" s="115"/>
+        <v>222</v>
+      </c>
+      <c r="D108" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="E108" s="105"/>
       <c r="F108" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="G108" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="H108" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="G108" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="H108" s="32" t="s">
-        <v>231</v>
       </c>
       <c r="I108" s="32">
         <v>0</v>
@@ -16557,10 +16642,10 @@
         <v>0</v>
       </c>
       <c r="L108" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="M108" s="115"/>
-      <c r="N108" s="115"/>
+        <v>226</v>
+      </c>
+      <c r="M108" s="105"/>
+      <c r="N108" s="105"/>
       <c r="O108" s="19"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.4">
@@ -16708,42 +16793,42 @@
       <c r="O117" s="19"/>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B118" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="95"/>
-      <c r="D118" s="95"/>
-      <c r="E118" s="95"/>
-      <c r="F118" s="95"/>
-      <c r="G118" s="95"/>
-      <c r="H118" s="95"/>
-      <c r="I118" s="95"/>
-      <c r="J118" s="95"/>
-      <c r="K118" s="95"/>
-      <c r="L118" s="95"/>
-      <c r="M118" s="95"/>
-      <c r="N118" s="95"/>
-      <c r="O118" s="96"/>
+      <c r="B118" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" s="92"/>
+      <c r="D118" s="92"/>
+      <c r="E118" s="92"/>
+      <c r="F118" s="92"/>
+      <c r="G118" s="92"/>
+      <c r="H118" s="92"/>
+      <c r="I118" s="92"/>
+      <c r="J118" s="92"/>
+      <c r="K118" s="92"/>
+      <c r="L118" s="92"/>
+      <c r="M118" s="92"/>
+      <c r="N118" s="92"/>
+      <c r="O118" s="93"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B119" s="97"/>
-      <c r="C119" s="98"/>
-      <c r="D119" s="98"/>
-      <c r="E119" s="98"/>
-      <c r="F119" s="98"/>
-      <c r="G119" s="98"/>
-      <c r="H119" s="98"/>
-      <c r="I119" s="98"/>
-      <c r="J119" s="98"/>
-      <c r="K119" s="98"/>
-      <c r="L119" s="98"/>
-      <c r="M119" s="98"/>
-      <c r="N119" s="98"/>
-      <c r="O119" s="99"/>
+      <c r="B119" s="94"/>
+      <c r="C119" s="95"/>
+      <c r="D119" s="95"/>
+      <c r="E119" s="95"/>
+      <c r="F119" s="95"/>
+      <c r="G119" s="95"/>
+      <c r="H119" s="95"/>
+      <c r="I119" s="95"/>
+      <c r="J119" s="95"/>
+      <c r="K119" s="95"/>
+      <c r="L119" s="95"/>
+      <c r="M119" s="95"/>
+      <c r="N119" s="95"/>
+      <c r="O119" s="96"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.4">
@@ -16764,17 +16849,17 @@
     </row>
     <row r="124" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B124" s="22"/>
-      <c r="C124" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="D124" s="102"/>
-      <c r="E124" s="102"/>
-      <c r="F124" s="102"/>
-      <c r="G124" s="102"/>
-      <c r="H124" s="102"/>
-      <c r="I124" s="102"/>
-      <c r="J124" s="102"/>
-      <c r="K124" s="102"/>
+      <c r="C124" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" s="98"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="98"/>
+      <c r="G124" s="98"/>
+      <c r="H124" s="98"/>
+      <c r="I124" s="98"/>
+      <c r="J124" s="98"/>
+      <c r="K124" s="98"/>
       <c r="L124" s="23"/>
       <c r="M124" s="23"/>
       <c r="N124" s="23"/>
@@ -16782,15 +16867,15 @@
     </row>
     <row r="125" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B125" s="22"/>
-      <c r="C125" s="102"/>
-      <c r="D125" s="102"/>
-      <c r="E125" s="102"/>
-      <c r="F125" s="102"/>
-      <c r="G125" s="102"/>
-      <c r="H125" s="102"/>
-      <c r="I125" s="102"/>
-      <c r="J125" s="102"/>
-      <c r="K125" s="102"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="98"/>
+      <c r="E125" s="98"/>
+      <c r="F125" s="98"/>
+      <c r="G125" s="98"/>
+      <c r="H125" s="98"/>
+      <c r="I125" s="98"/>
+      <c r="J125" s="98"/>
+      <c r="K125" s="98"/>
       <c r="L125" s="23"/>
       <c r="M125" s="23"/>
       <c r="N125" s="23"/>
@@ -16798,20 +16883,20 @@
     </row>
     <row r="126" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B126" s="22"/>
-      <c r="C126" s="102"/>
-      <c r="D126" s="102"/>
-      <c r="E126" s="102"/>
-      <c r="F126" s="102"/>
-      <c r="G126" s="102"/>
-      <c r="H126" s="102"/>
-      <c r="I126" s="102"/>
-      <c r="J126" s="102"/>
-      <c r="K126" s="102"/>
+      <c r="C126" s="98"/>
+      <c r="D126" s="98"/>
+      <c r="E126" s="98"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="98"/>
+      <c r="H126" s="98"/>
+      <c r="I126" s="98"/>
+      <c r="J126" s="98"/>
+      <c r="K126" s="98"/>
       <c r="L126" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M126" s="64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N126" s="30"/>
       <c r="O126" s="24"/>
@@ -16835,16 +16920,16 @@
     <row r="128" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B128" s="22"/>
       <c r="C128" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D128" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E128" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F128" s="49" t="s">
         <v>162</v>
-      </c>
-      <c r="D128" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E128" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F128" s="49" t="s">
-        <v>164</v>
       </c>
       <c r="G128" s="34"/>
       <c r="H128" s="34"/>
@@ -16874,12 +16959,12 @@
     </row>
     <row r="130" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B130" s="22"/>
-      <c r="C130" s="103" t="s">
-        <v>233</v>
-      </c>
-      <c r="D130" s="103"/>
-      <c r="E130" s="103"/>
-      <c r="F130" s="103"/>
+      <c r="C130" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="D130" s="97"/>
+      <c r="E130" s="97"/>
+      <c r="F130" s="97"/>
       <c r="G130" s="31"/>
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
@@ -16892,12 +16977,12 @@
     </row>
     <row r="131" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B131" s="18"/>
-      <c r="C131" s="103"/>
-      <c r="D131" s="103"/>
-      <c r="E131" s="103"/>
-      <c r="F131" s="103"/>
-      <c r="G131" s="116"/>
-      <c r="H131" s="116"/>
+      <c r="C131" s="97"/>
+      <c r="D131" s="97"/>
+      <c r="E131" s="97"/>
+      <c r="F131" s="97"/>
+      <c r="G131" s="99"/>
+      <c r="H131" s="99"/>
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
@@ -16908,10 +16993,10 @@
     </row>
     <row r="132" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B132" s="18"/>
-      <c r="C132" s="103"/>
-      <c r="D132" s="103"/>
-      <c r="E132" s="103"/>
-      <c r="F132" s="103"/>
+      <c r="C132" s="97"/>
+      <c r="D132" s="97"/>
+      <c r="E132" s="97"/>
+      <c r="F132" s="97"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
       <c r="I132" s="20"/>
@@ -16924,85 +17009,85 @@
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B133" s="18"/>
-      <c r="C133" s="112" t="s">
+      <c r="C133" s="136" t="s">
+        <v>232</v>
+      </c>
+      <c r="D133" s="136"/>
+      <c r="E133" s="136"/>
+      <c r="F133" s="133" t="s">
+        <v>233</v>
+      </c>
+      <c r="G133" s="133"/>
+      <c r="H133" s="133"/>
+      <c r="I133" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="J133" s="135"/>
+      <c r="K133" s="133" t="s">
         <v>234</v>
       </c>
-      <c r="D133" s="112"/>
-      <c r="E133" s="112"/>
-      <c r="F133" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="G133" s="111"/>
-      <c r="H133" s="111"/>
-      <c r="I133" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="J133" s="93"/>
-      <c r="K133" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="L133" s="111"/>
-      <c r="M133" s="111"/>
-      <c r="N133" s="111"/>
+      <c r="L133" s="133"/>
+      <c r="M133" s="133"/>
+      <c r="N133" s="133"/>
       <c r="O133" s="61"/>
       <c r="R133" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B134" s="18"/>
-      <c r="C134" s="106" t="s">
-        <v>237</v>
-      </c>
-      <c r="D134" s="107"/>
-      <c r="E134" s="108"/>
-      <c r="F134" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="G134" s="105"/>
-      <c r="H134" s="93"/>
-      <c r="I134" s="113"/>
-      <c r="J134" s="114"/>
-      <c r="K134" s="111" t="s">
-        <v>238</v>
-      </c>
-      <c r="L134" s="111"/>
-      <c r="M134" s="111"/>
-      <c r="N134" s="111"/>
+      <c r="C134" s="137" t="s">
+        <v>235</v>
+      </c>
+      <c r="D134" s="138"/>
+      <c r="E134" s="139"/>
+      <c r="F134" s="134" t="s">
+        <v>235</v>
+      </c>
+      <c r="G134" s="140"/>
+      <c r="H134" s="135"/>
+      <c r="I134" s="141"/>
+      <c r="J134" s="142"/>
+      <c r="K134" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="L134" s="133"/>
+      <c r="M134" s="133"/>
+      <c r="N134" s="133"/>
       <c r="O134" s="19"/>
       <c r="R134" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B135" s="18"/>
-      <c r="C135" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="D135" s="107"/>
-      <c r="E135" s="108"/>
-      <c r="F135" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="G135" s="105"/>
-      <c r="H135" s="93"/>
-      <c r="I135" s="113"/>
-      <c r="J135" s="114"/>
-      <c r="K135" s="111" t="s">
+      <c r="C135" s="137" t="s">
         <v>238</v>
       </c>
-      <c r="L135" s="111"/>
-      <c r="M135" s="111"/>
-      <c r="N135" s="111"/>
+      <c r="D135" s="138"/>
+      <c r="E135" s="139"/>
+      <c r="F135" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G135" s="140"/>
+      <c r="H135" s="135"/>
+      <c r="I135" s="141"/>
+      <c r="J135" s="142"/>
+      <c r="K135" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="L135" s="133"/>
+      <c r="M135" s="133"/>
+      <c r="N135" s="133"/>
       <c r="O135" s="19"/>
       <c r="R135" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B136" s="18"/>
       <c r="C136" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D136" s="20"/>
       <c r="E136" s="20"/>
@@ -17038,7 +17123,7 @@
     <row r="138" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B138" s="18"/>
       <c r="C138" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
@@ -17150,45 +17235,45 @@
       <c r="O144" s="19"/>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B145" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="95"/>
-      <c r="D145" s="95"/>
-      <c r="E145" s="95"/>
-      <c r="F145" s="95"/>
-      <c r="G145" s="95"/>
-      <c r="H145" s="95"/>
-      <c r="I145" s="95"/>
-      <c r="J145" s="95"/>
-      <c r="K145" s="95"/>
-      <c r="L145" s="95"/>
-      <c r="M145" s="95"/>
-      <c r="N145" s="95"/>
-      <c r="O145" s="96"/>
+      <c r="B145" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C145" s="92"/>
+      <c r="D145" s="92"/>
+      <c r="E145" s="92"/>
+      <c r="F145" s="92"/>
+      <c r="G145" s="92"/>
+      <c r="H145" s="92"/>
+      <c r="I145" s="92"/>
+      <c r="J145" s="92"/>
+      <c r="K145" s="92"/>
+      <c r="L145" s="92"/>
+      <c r="M145" s="92"/>
+      <c r="N145" s="92"/>
+      <c r="O145" s="93"/>
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B146" s="97"/>
-      <c r="C146" s="98"/>
-      <c r="D146" s="98"/>
-      <c r="E146" s="98"/>
-      <c r="F146" s="98"/>
-      <c r="G146" s="98"/>
-      <c r="H146" s="98"/>
-      <c r="I146" s="98"/>
-      <c r="J146" s="98"/>
-      <c r="K146" s="98"/>
-      <c r="L146" s="98"/>
-      <c r="M146" s="98"/>
-      <c r="N146" s="98"/>
-      <c r="O146" s="99"/>
+      <c r="B146" s="94"/>
+      <c r="C146" s="95"/>
+      <c r="D146" s="95"/>
+      <c r="E146" s="95"/>
+      <c r="F146" s="95"/>
+      <c r="G146" s="95"/>
+      <c r="H146" s="95"/>
+      <c r="I146" s="95"/>
+      <c r="J146" s="95"/>
+      <c r="K146" s="95"/>
+      <c r="L146" s="95"/>
+      <c r="M146" s="95"/>
+      <c r="N146" s="95"/>
+      <c r="O146" s="96"/>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B149" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D149" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.4">
@@ -17209,17 +17294,17 @@
     </row>
     <row r="151" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B151" s="22"/>
-      <c r="C151" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="D151" s="102"/>
-      <c r="E151" s="102"/>
-      <c r="F151" s="102"/>
-      <c r="G151" s="102"/>
-      <c r="H151" s="102"/>
-      <c r="I151" s="102"/>
-      <c r="J151" s="102"/>
-      <c r="K151" s="102"/>
+      <c r="C151" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" s="98"/>
+      <c r="E151" s="98"/>
+      <c r="F151" s="98"/>
+      <c r="G151" s="98"/>
+      <c r="H151" s="98"/>
+      <c r="I151" s="98"/>
+      <c r="J151" s="98"/>
+      <c r="K151" s="98"/>
       <c r="L151" s="23"/>
       <c r="M151" s="23"/>
       <c r="N151" s="23"/>
@@ -17227,15 +17312,15 @@
     </row>
     <row r="152" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B152" s="22"/>
-      <c r="C152" s="102"/>
-      <c r="D152" s="102"/>
-      <c r="E152" s="102"/>
-      <c r="F152" s="102"/>
-      <c r="G152" s="102"/>
-      <c r="H152" s="102"/>
-      <c r="I152" s="102"/>
-      <c r="J152" s="102"/>
-      <c r="K152" s="102"/>
+      <c r="C152" s="98"/>
+      <c r="D152" s="98"/>
+      <c r="E152" s="98"/>
+      <c r="F152" s="98"/>
+      <c r="G152" s="98"/>
+      <c r="H152" s="98"/>
+      <c r="I152" s="98"/>
+      <c r="J152" s="98"/>
+      <c r="K152" s="98"/>
       <c r="L152" s="23"/>
       <c r="M152" s="23"/>
       <c r="N152" s="23"/>
@@ -17243,20 +17328,20 @@
     </row>
     <row r="153" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B153" s="22"/>
-      <c r="C153" s="102"/>
-      <c r="D153" s="102"/>
-      <c r="E153" s="102"/>
-      <c r="F153" s="102"/>
-      <c r="G153" s="102"/>
-      <c r="H153" s="102"/>
-      <c r="I153" s="102"/>
-      <c r="J153" s="102"/>
-      <c r="K153" s="102"/>
+      <c r="C153" s="98"/>
+      <c r="D153" s="98"/>
+      <c r="E153" s="98"/>
+      <c r="F153" s="98"/>
+      <c r="G153" s="98"/>
+      <c r="H153" s="98"/>
+      <c r="I153" s="98"/>
+      <c r="J153" s="98"/>
+      <c r="K153" s="98"/>
       <c r="L153" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M153" s="64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N153" s="30"/>
       <c r="O153" s="24"/>
@@ -17280,16 +17365,16 @@
     <row r="155" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B155" s="22"/>
       <c r="C155" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D155" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E155" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F155" s="49" t="s">
         <v>162</v>
-      </c>
-      <c r="D155" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E155" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F155" s="49" t="s">
-        <v>164</v>
       </c>
       <c r="G155" s="34"/>
       <c r="H155" s="34"/>
@@ -17319,14 +17404,14 @@
     </row>
     <row r="157" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B157" s="22"/>
-      <c r="C157" s="103" t="s">
-        <v>246</v>
-      </c>
-      <c r="D157" s="103"/>
-      <c r="E157" s="103"/>
-      <c r="F157" s="103"/>
-      <c r="G157" s="103"/>
-      <c r="H157" s="103"/>
+      <c r="C157" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="D157" s="97"/>
+      <c r="E157" s="97"/>
+      <c r="F157" s="97"/>
+      <c r="G157" s="97"/>
+      <c r="H157" s="97"/>
       <c r="I157" s="31"/>
       <c r="J157" s="31"/>
       <c r="K157" s="31"/>
@@ -17337,12 +17422,12 @@
     </row>
     <row r="158" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B158" s="18"/>
-      <c r="C158" s="103"/>
-      <c r="D158" s="103"/>
-      <c r="E158" s="103"/>
-      <c r="F158" s="103"/>
-      <c r="G158" s="103"/>
-      <c r="H158" s="103"/>
+      <c r="C158" s="97"/>
+      <c r="D158" s="97"/>
+      <c r="E158" s="97"/>
+      <c r="F158" s="97"/>
+      <c r="G158" s="97"/>
+      <c r="H158" s="97"/>
       <c r="I158" s="20"/>
       <c r="J158" s="20"/>
       <c r="K158" s="20"/>
@@ -17353,12 +17438,12 @@
     </row>
     <row r="159" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B159" s="18"/>
-      <c r="C159" s="109"/>
-      <c r="D159" s="109"/>
-      <c r="E159" s="109"/>
-      <c r="F159" s="109"/>
-      <c r="G159" s="109"/>
-      <c r="H159" s="109"/>
+      <c r="C159" s="146"/>
+      <c r="D159" s="146"/>
+      <c r="E159" s="146"/>
+      <c r="F159" s="146"/>
+      <c r="G159" s="146"/>
+      <c r="H159" s="146"/>
       <c r="I159" s="20"/>
       <c r="J159" s="20"/>
       <c r="K159" s="20"/>
@@ -17369,148 +17454,148 @@
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B160" s="18"/>
-      <c r="C160" s="112" t="s">
-        <v>234</v>
-      </c>
-      <c r="D160" s="112"/>
-      <c r="E160" s="112"/>
-      <c r="F160" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="G160" s="105"/>
-      <c r="H160" s="105"/>
-      <c r="I160" s="105"/>
-      <c r="J160" s="105"/>
-      <c r="K160" s="105"/>
-      <c r="L160" s="105"/>
-      <c r="M160" s="105"/>
-      <c r="N160" s="93"/>
+      <c r="C160" s="136" t="s">
+        <v>232</v>
+      </c>
+      <c r="D160" s="136"/>
+      <c r="E160" s="136"/>
+      <c r="F160" s="134" t="s">
+        <v>235</v>
+      </c>
+      <c r="G160" s="140"/>
+      <c r="H160" s="140"/>
+      <c r="I160" s="140"/>
+      <c r="J160" s="140"/>
+      <c r="K160" s="140"/>
+      <c r="L160" s="140"/>
+      <c r="M160" s="140"/>
+      <c r="N160" s="135"/>
       <c r="O160" s="61"/>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B161" s="18"/>
-      <c r="C161" s="106" t="s">
+      <c r="C161" s="137" t="s">
+        <v>233</v>
+      </c>
+      <c r="D161" s="138"/>
+      <c r="E161" s="139"/>
+      <c r="F161" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="D161" s="107"/>
-      <c r="E161" s="108"/>
-      <c r="F161" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="G161" s="105"/>
-      <c r="H161" s="105"/>
-      <c r="I161" s="105"/>
-      <c r="J161" s="105"/>
-      <c r="K161" s="105"/>
-      <c r="L161" s="105"/>
-      <c r="M161" s="105"/>
-      <c r="N161" s="93"/>
+      <c r="G161" s="140"/>
+      <c r="H161" s="140"/>
+      <c r="I161" s="140"/>
+      <c r="J161" s="140"/>
+      <c r="K161" s="140"/>
+      <c r="L161" s="140"/>
+      <c r="M161" s="140"/>
+      <c r="N161" s="135"/>
       <c r="O161" s="19"/>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B162" s="18"/>
-      <c r="C162" s="106" t="s">
-        <v>249</v>
-      </c>
-      <c r="D162" s="107"/>
-      <c r="E162" s="108"/>
-      <c r="F162" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="G162" s="105"/>
-      <c r="H162" s="105"/>
-      <c r="I162" s="105"/>
-      <c r="J162" s="105"/>
-      <c r="K162" s="105"/>
-      <c r="L162" s="105"/>
-      <c r="M162" s="105"/>
-      <c r="N162" s="93"/>
+      <c r="C162" s="137" t="s">
+        <v>247</v>
+      </c>
+      <c r="D162" s="138"/>
+      <c r="E162" s="139"/>
+      <c r="F162" s="134" t="s">
+        <v>254</v>
+      </c>
+      <c r="G162" s="140"/>
+      <c r="H162" s="140"/>
+      <c r="I162" s="140"/>
+      <c r="J162" s="140"/>
+      <c r="K162" s="140"/>
+      <c r="L162" s="140"/>
+      <c r="M162" s="140"/>
+      <c r="N162" s="135"/>
       <c r="O162" s="19"/>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B163" s="18"/>
-      <c r="C163" s="106" t="s">
-        <v>250</v>
-      </c>
-      <c r="D163" s="107"/>
-      <c r="E163" s="108"/>
-      <c r="F163" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="G163" s="105"/>
-      <c r="H163" s="105"/>
-      <c r="I163" s="105"/>
-      <c r="J163" s="105"/>
-      <c r="K163" s="105"/>
-      <c r="L163" s="105"/>
-      <c r="M163" s="105"/>
-      <c r="N163" s="93"/>
+      <c r="C163" s="137" t="s">
+        <v>248</v>
+      </c>
+      <c r="D163" s="138"/>
+      <c r="E163" s="139"/>
+      <c r="F163" s="147" t="s">
+        <v>255</v>
+      </c>
+      <c r="G163" s="140"/>
+      <c r="H163" s="140"/>
+      <c r="I163" s="140"/>
+      <c r="J163" s="140"/>
+      <c r="K163" s="140"/>
+      <c r="L163" s="140"/>
+      <c r="M163" s="140"/>
+      <c r="N163" s="135"/>
       <c r="O163" s="19"/>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B164" s="18"/>
-      <c r="C164" s="106" t="s">
-        <v>251</v>
-      </c>
-      <c r="D164" s="107"/>
-      <c r="E164" s="108"/>
-      <c r="F164" s="92" t="s">
-        <v>258</v>
-      </c>
-      <c r="G164" s="105"/>
-      <c r="H164" s="105"/>
-      <c r="I164" s="105"/>
-      <c r="J164" s="105"/>
-      <c r="K164" s="105"/>
-      <c r="L164" s="105"/>
-      <c r="M164" s="105"/>
-      <c r="N164" s="93"/>
+      <c r="C164" s="137" t="s">
+        <v>249</v>
+      </c>
+      <c r="D164" s="138"/>
+      <c r="E164" s="139"/>
+      <c r="F164" s="134" t="s">
+        <v>256</v>
+      </c>
+      <c r="G164" s="140"/>
+      <c r="H164" s="140"/>
+      <c r="I164" s="140"/>
+      <c r="J164" s="140"/>
+      <c r="K164" s="140"/>
+      <c r="L164" s="140"/>
+      <c r="M164" s="140"/>
+      <c r="N164" s="135"/>
       <c r="O164" s="19"/>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B165" s="18"/>
-      <c r="C165" s="106" t="s">
-        <v>252</v>
-      </c>
-      <c r="D165" s="107"/>
-      <c r="E165" s="108"/>
-      <c r="F165" s="92" t="s">
-        <v>259</v>
-      </c>
-      <c r="G165" s="105"/>
-      <c r="H165" s="105"/>
-      <c r="I165" s="105"/>
-      <c r="J165" s="105"/>
-      <c r="K165" s="105"/>
-      <c r="L165" s="105"/>
-      <c r="M165" s="105"/>
-      <c r="N165" s="93"/>
+      <c r="C165" s="137" t="s">
+        <v>250</v>
+      </c>
+      <c r="D165" s="138"/>
+      <c r="E165" s="139"/>
+      <c r="F165" s="134" t="s">
+        <v>257</v>
+      </c>
+      <c r="G165" s="140"/>
+      <c r="H165" s="140"/>
+      <c r="I165" s="140"/>
+      <c r="J165" s="140"/>
+      <c r="K165" s="140"/>
+      <c r="L165" s="140"/>
+      <c r="M165" s="140"/>
+      <c r="N165" s="135"/>
       <c r="O165" s="19"/>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B166" s="18"/>
-      <c r="C166" s="106" t="s">
-        <v>253</v>
-      </c>
-      <c r="D166" s="107"/>
-      <c r="E166" s="108"/>
-      <c r="F166" s="92" t="s">
-        <v>259</v>
-      </c>
-      <c r="G166" s="105"/>
-      <c r="H166" s="105"/>
-      <c r="I166" s="105"/>
-      <c r="J166" s="105"/>
-      <c r="K166" s="105"/>
-      <c r="L166" s="105"/>
-      <c r="M166" s="105"/>
-      <c r="N166" s="93"/>
+      <c r="C166" s="137" t="s">
+        <v>251</v>
+      </c>
+      <c r="D166" s="138"/>
+      <c r="E166" s="139"/>
+      <c r="F166" s="134" t="s">
+        <v>257</v>
+      </c>
+      <c r="G166" s="140"/>
+      <c r="H166" s="140"/>
+      <c r="I166" s="140"/>
+      <c r="J166" s="140"/>
+      <c r="K166" s="140"/>
+      <c r="L166" s="140"/>
+      <c r="M166" s="140"/>
+      <c r="N166" s="135"/>
       <c r="O166" s="19"/>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B167" s="18"/>
       <c r="C167" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D167" s="20"/>
       <c r="E167" s="20"/>
@@ -17528,7 +17613,7 @@
     <row r="168" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B168" s="18"/>
       <c r="C168" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
@@ -17592,42 +17677,42 @@
       <c r="O171" s="19"/>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B172" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="C172" s="95"/>
-      <c r="D172" s="95"/>
-      <c r="E172" s="95"/>
-      <c r="F172" s="95"/>
-      <c r="G172" s="95"/>
-      <c r="H172" s="95"/>
-      <c r="I172" s="95"/>
-      <c r="J172" s="95"/>
-      <c r="K172" s="95"/>
-      <c r="L172" s="95"/>
-      <c r="M172" s="95"/>
-      <c r="N172" s="95"/>
-      <c r="O172" s="96"/>
+      <c r="B172" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C172" s="92"/>
+      <c r="D172" s="92"/>
+      <c r="E172" s="92"/>
+      <c r="F172" s="92"/>
+      <c r="G172" s="92"/>
+      <c r="H172" s="92"/>
+      <c r="I172" s="92"/>
+      <c r="J172" s="92"/>
+      <c r="K172" s="92"/>
+      <c r="L172" s="92"/>
+      <c r="M172" s="92"/>
+      <c r="N172" s="92"/>
+      <c r="O172" s="93"/>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B173" s="97"/>
-      <c r="C173" s="98"/>
-      <c r="D173" s="98"/>
-      <c r="E173" s="98"/>
-      <c r="F173" s="98"/>
-      <c r="G173" s="98"/>
-      <c r="H173" s="98"/>
-      <c r="I173" s="98"/>
-      <c r="J173" s="98"/>
-      <c r="K173" s="98"/>
-      <c r="L173" s="98"/>
-      <c r="M173" s="98"/>
-      <c r="N173" s="98"/>
-      <c r="O173" s="99"/>
+      <c r="B173" s="94"/>
+      <c r="C173" s="95"/>
+      <c r="D173" s="95"/>
+      <c r="E173" s="95"/>
+      <c r="F173" s="95"/>
+      <c r="G173" s="95"/>
+      <c r="H173" s="95"/>
+      <c r="I173" s="95"/>
+      <c r="J173" s="95"/>
+      <c r="K173" s="95"/>
+      <c r="L173" s="95"/>
+      <c r="M173" s="95"/>
+      <c r="N173" s="95"/>
+      <c r="O173" s="96"/>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B176" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="177" spans="2:18" x14ac:dyDescent="0.4">
@@ -17648,17 +17733,17 @@
     </row>
     <row r="178" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B178" s="22"/>
-      <c r="C178" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="D178" s="102"/>
-      <c r="E178" s="102"/>
-      <c r="F178" s="102"/>
-      <c r="G178" s="102"/>
-      <c r="H178" s="102"/>
-      <c r="I178" s="102"/>
-      <c r="J178" s="102"/>
-      <c r="K178" s="102"/>
+      <c r="C178" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D178" s="98"/>
+      <c r="E178" s="98"/>
+      <c r="F178" s="98"/>
+      <c r="G178" s="98"/>
+      <c r="H178" s="98"/>
+      <c r="I178" s="98"/>
+      <c r="J178" s="98"/>
+      <c r="K178" s="98"/>
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
       <c r="N178" s="23"/>
@@ -17666,15 +17751,15 @@
     </row>
     <row r="179" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B179" s="22"/>
-      <c r="C179" s="102"/>
-      <c r="D179" s="102"/>
-      <c r="E179" s="102"/>
-      <c r="F179" s="102"/>
-      <c r="G179" s="102"/>
-      <c r="H179" s="102"/>
-      <c r="I179" s="102"/>
-      <c r="J179" s="102"/>
-      <c r="K179" s="102"/>
+      <c r="C179" s="98"/>
+      <c r="D179" s="98"/>
+      <c r="E179" s="98"/>
+      <c r="F179" s="98"/>
+      <c r="G179" s="98"/>
+      <c r="H179" s="98"/>
+      <c r="I179" s="98"/>
+      <c r="J179" s="98"/>
+      <c r="K179" s="98"/>
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
       <c r="N179" s="23"/>
@@ -17682,20 +17767,20 @@
     </row>
     <row r="180" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B180" s="22"/>
-      <c r="C180" s="102"/>
-      <c r="D180" s="102"/>
-      <c r="E180" s="102"/>
-      <c r="F180" s="102"/>
-      <c r="G180" s="102"/>
-      <c r="H180" s="102"/>
-      <c r="I180" s="102"/>
-      <c r="J180" s="102"/>
-      <c r="K180" s="102"/>
+      <c r="C180" s="98"/>
+      <c r="D180" s="98"/>
+      <c r="E180" s="98"/>
+      <c r="F180" s="98"/>
+      <c r="G180" s="98"/>
+      <c r="H180" s="98"/>
+      <c r="I180" s="98"/>
+      <c r="J180" s="98"/>
+      <c r="K180" s="98"/>
       <c r="L180" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M180" s="64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N180" s="30"/>
       <c r="O180" s="24"/>
@@ -17719,16 +17804,16 @@
     <row r="182" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B182" s="22"/>
       <c r="C182" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D182" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E182" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F182" s="49" t="s">
         <v>162</v>
-      </c>
-      <c r="D182" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E182" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F182" s="49" t="s">
-        <v>164</v>
       </c>
       <c r="G182" s="34"/>
       <c r="H182" s="34"/>
@@ -17758,14 +17843,14 @@
     </row>
     <row r="184" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B184" s="22"/>
-      <c r="C184" s="103" t="s">
-        <v>260</v>
-      </c>
-      <c r="D184" s="103"/>
-      <c r="E184" s="103"/>
-      <c r="F184" s="103"/>
-      <c r="G184" s="103"/>
-      <c r="H184" s="103"/>
+      <c r="C184" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="D184" s="97"/>
+      <c r="E184" s="97"/>
+      <c r="F184" s="97"/>
+      <c r="G184" s="97"/>
+      <c r="H184" s="97"/>
       <c r="I184" s="31"/>
       <c r="J184" s="31"/>
       <c r="K184" s="31"/>
@@ -17776,12 +17861,12 @@
     </row>
     <row r="185" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B185" s="18"/>
-      <c r="C185" s="103"/>
-      <c r="D185" s="103"/>
-      <c r="E185" s="103"/>
-      <c r="F185" s="103"/>
-      <c r="G185" s="103"/>
-      <c r="H185" s="103"/>
+      <c r="C185" s="97"/>
+      <c r="D185" s="97"/>
+      <c r="E185" s="97"/>
+      <c r="F185" s="97"/>
+      <c r="G185" s="97"/>
+      <c r="H185" s="97"/>
       <c r="I185" s="20"/>
       <c r="J185" s="20"/>
       <c r="K185" s="20"/>
@@ -17792,12 +17877,12 @@
     </row>
     <row r="186" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B186" s="18"/>
-      <c r="C186" s="104"/>
-      <c r="D186" s="104"/>
-      <c r="E186" s="104"/>
-      <c r="F186" s="104"/>
-      <c r="G186" s="104"/>
-      <c r="H186" s="104"/>
+      <c r="C186" s="143"/>
+      <c r="D186" s="143"/>
+      <c r="E186" s="143"/>
+      <c r="F186" s="143"/>
+      <c r="G186" s="143"/>
+      <c r="H186" s="143"/>
       <c r="I186" s="20"/>
       <c r="J186" s="20"/>
       <c r="K186" s="20"/>
@@ -17809,7 +17894,7 @@
     <row r="187" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B187" s="18"/>
       <c r="C187" s="67" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D187" s="66"/>
       <c r="E187" s="66"/>
@@ -17826,28 +17911,28 @@
     </row>
     <row r="188" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B188" s="18"/>
-      <c r="C188" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="D188" s="91"/>
-      <c r="E188" s="91"/>
-      <c r="F188" s="100"/>
-      <c r="G188" s="100"/>
-      <c r="H188" s="100"/>
-      <c r="I188" s="100"/>
-      <c r="J188" s="100"/>
-      <c r="K188" s="100"/>
-      <c r="L188" s="100"/>
-      <c r="M188" s="100"/>
-      <c r="N188" s="100"/>
+      <c r="C188" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="D188" s="144"/>
+      <c r="E188" s="144"/>
+      <c r="F188" s="145"/>
+      <c r="G188" s="145"/>
+      <c r="H188" s="145"/>
+      <c r="I188" s="145"/>
+      <c r="J188" s="145"/>
+      <c r="K188" s="145"/>
+      <c r="L188" s="145"/>
+      <c r="M188" s="145"/>
+      <c r="N188" s="145"/>
       <c r="O188" s="61"/>
     </row>
     <row r="189" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B189" s="18"/>
-      <c r="C189" s="92" t="s">
-        <v>199</v>
-      </c>
-      <c r="D189" s="93"/>
+      <c r="C189" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="D189" s="135"/>
       <c r="E189" s="48"/>
       <c r="F189" s="65"/>
       <c r="G189" s="65"/>
@@ -17876,16 +17961,16 @@
       <c r="N190" s="65"/>
       <c r="O190" s="61"/>
       <c r="R190" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B191" s="18"/>
-      <c r="C191" s="91" t="s">
-        <v>248</v>
-      </c>
-      <c r="D191" s="91"/>
-      <c r="E191" s="91"/>
+      <c r="C191" s="144" t="s">
+        <v>246</v>
+      </c>
+      <c r="D191" s="144"/>
+      <c r="E191" s="144"/>
       <c r="F191" s="65"/>
       <c r="G191" s="65"/>
       <c r="H191" s="65"/>
@@ -17897,15 +17982,15 @@
       <c r="N191" s="65"/>
       <c r="O191" s="61"/>
       <c r="R191" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B192" s="18"/>
-      <c r="C192" s="92" t="s">
-        <v>199</v>
-      </c>
-      <c r="D192" s="93"/>
+      <c r="C192" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="D192" s="135"/>
       <c r="E192" s="48"/>
       <c r="F192" s="65"/>
       <c r="G192" s="65"/>
@@ -17918,7 +18003,7 @@
       <c r="N192" s="65"/>
       <c r="O192" s="61"/>
       <c r="R192" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.4">
@@ -17939,111 +18024,111 @@
     </row>
     <row r="194" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B194" s="18"/>
-      <c r="C194" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="D194" s="91"/>
-      <c r="E194" s="91"/>
-      <c r="F194" s="100"/>
-      <c r="G194" s="100"/>
-      <c r="H194" s="100"/>
-      <c r="I194" s="100"/>
-      <c r="J194" s="100"/>
-      <c r="K194" s="100"/>
-      <c r="L194" s="100"/>
-      <c r="M194" s="100"/>
-      <c r="N194" s="100"/>
+      <c r="C194" s="144" t="s">
+        <v>94</v>
+      </c>
+      <c r="D194" s="144"/>
+      <c r="E194" s="144"/>
+      <c r="F194" s="145"/>
+      <c r="G194" s="145"/>
+      <c r="H194" s="145"/>
+      <c r="I194" s="145"/>
+      <c r="J194" s="145"/>
+      <c r="K194" s="145"/>
+      <c r="L194" s="145"/>
+      <c r="M194" s="145"/>
+      <c r="N194" s="145"/>
       <c r="O194" s="19"/>
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B195" s="18"/>
-      <c r="C195" s="92"/>
-      <c r="D195" s="93"/>
+      <c r="C195" s="134"/>
+      <c r="D195" s="135"/>
       <c r="E195" s="48"/>
-      <c r="F195" s="100"/>
-      <c r="G195" s="100"/>
-      <c r="H195" s="100"/>
-      <c r="I195" s="100"/>
-      <c r="J195" s="100"/>
-      <c r="K195" s="100"/>
-      <c r="L195" s="100"/>
-      <c r="M195" s="100"/>
-      <c r="N195" s="100"/>
+      <c r="F195" s="145"/>
+      <c r="G195" s="145"/>
+      <c r="H195" s="145"/>
+      <c r="I195" s="145"/>
+      <c r="J195" s="145"/>
+      <c r="K195" s="145"/>
+      <c r="L195" s="145"/>
+      <c r="M195" s="145"/>
+      <c r="N195" s="145"/>
       <c r="O195" s="19"/>
     </row>
     <row r="196" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B196" s="18"/>
-      <c r="C196" s="91"/>
-      <c r="D196" s="91"/>
-      <c r="E196" s="91"/>
-      <c r="F196" s="101"/>
-      <c r="G196" s="100"/>
-      <c r="H196" s="100"/>
-      <c r="I196" s="100"/>
-      <c r="J196" s="100"/>
-      <c r="K196" s="100"/>
-      <c r="L196" s="100"/>
-      <c r="M196" s="100"/>
-      <c r="N196" s="100"/>
+      <c r="C196" s="144"/>
+      <c r="D196" s="144"/>
+      <c r="E196" s="144"/>
+      <c r="F196" s="148"/>
+      <c r="G196" s="145"/>
+      <c r="H196" s="145"/>
+      <c r="I196" s="145"/>
+      <c r="J196" s="145"/>
+      <c r="K196" s="145"/>
+      <c r="L196" s="145"/>
+      <c r="M196" s="145"/>
+      <c r="N196" s="145"/>
       <c r="O196" s="19"/>
     </row>
     <row r="197" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B197" s="18"/>
-      <c r="C197" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" s="91"/>
-      <c r="E197" s="91"/>
-      <c r="F197" s="100"/>
-      <c r="G197" s="100"/>
-      <c r="H197" s="100"/>
-      <c r="I197" s="100"/>
-      <c r="J197" s="100"/>
-      <c r="K197" s="100"/>
-      <c r="L197" s="100"/>
-      <c r="M197" s="100"/>
-      <c r="N197" s="100"/>
+      <c r="C197" s="144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="144"/>
+      <c r="E197" s="144"/>
+      <c r="F197" s="145"/>
+      <c r="G197" s="145"/>
+      <c r="H197" s="145"/>
+      <c r="I197" s="145"/>
+      <c r="J197" s="145"/>
+      <c r="K197" s="145"/>
+      <c r="L197" s="145"/>
+      <c r="M197" s="145"/>
+      <c r="N197" s="145"/>
       <c r="O197" s="19"/>
     </row>
     <row r="198" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B198" s="18"/>
-      <c r="C198" s="100"/>
-      <c r="D198" s="100"/>
+      <c r="C198" s="145"/>
+      <c r="D198" s="145"/>
       <c r="E198" s="48"/>
-      <c r="F198" s="100"/>
-      <c r="G198" s="100"/>
-      <c r="H198" s="100"/>
-      <c r="I198" s="100"/>
-      <c r="J198" s="100"/>
-      <c r="K198" s="100"/>
-      <c r="L198" s="100"/>
-      <c r="M198" s="100"/>
-      <c r="N198" s="100"/>
+      <c r="F198" s="145"/>
+      <c r="G198" s="145"/>
+      <c r="H198" s="145"/>
+      <c r="I198" s="145"/>
+      <c r="J198" s="145"/>
+      <c r="K198" s="145"/>
+      <c r="L198" s="145"/>
+      <c r="M198" s="145"/>
+      <c r="N198" s="145"/>
       <c r="O198" s="19"/>
     </row>
     <row r="199" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B199" s="18"/>
-      <c r="C199" s="91"/>
-      <c r="D199" s="91"/>
-      <c r="E199" s="91"/>
-      <c r="F199" s="100"/>
-      <c r="G199" s="100"/>
-      <c r="H199" s="100"/>
-      <c r="I199" s="100"/>
-      <c r="J199" s="100"/>
-      <c r="K199" s="100"/>
-      <c r="L199" s="100"/>
-      <c r="M199" s="100"/>
-      <c r="N199" s="100"/>
+      <c r="C199" s="144"/>
+      <c r="D199" s="144"/>
+      <c r="E199" s="144"/>
+      <c r="F199" s="145"/>
+      <c r="G199" s="145"/>
+      <c r="H199" s="145"/>
+      <c r="I199" s="145"/>
+      <c r="J199" s="145"/>
+      <c r="K199" s="145"/>
+      <c r="L199" s="145"/>
+      <c r="M199" s="145"/>
+      <c r="N199" s="145"/>
       <c r="O199" s="19"/>
     </row>
     <row r="200" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B200" s="18"/>
-      <c r="C200" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="D200" s="91"/>
-      <c r="E200" s="91"/>
+      <c r="C200" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="D200" s="144"/>
+      <c r="E200" s="144"/>
       <c r="F200" s="20"/>
       <c r="G200" s="20"/>
       <c r="H200" s="20"/>
@@ -18057,10 +18142,10 @@
     </row>
     <row r="201" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B201" s="18"/>
-      <c r="C201" s="92">
+      <c r="C201" s="134">
         <v>20</v>
       </c>
-      <c r="D201" s="93"/>
+      <c r="D201" s="135"/>
       <c r="E201" s="48"/>
       <c r="F201" s="20"/>
       <c r="G201" s="20"/>
@@ -18108,7 +18193,7 @@
     <row r="204" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B204" s="18"/>
       <c r="C204" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D204" s="20"/>
       <c r="E204" s="20"/>
@@ -18126,7 +18211,7 @@
     <row r="205" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B205" s="18"/>
       <c r="C205" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D205" s="20"/>
       <c r="E205" s="20"/>
@@ -18158,42 +18243,42 @@
       <c r="O206" s="19"/>
     </row>
     <row r="207" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B207" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="C207" s="95"/>
-      <c r="D207" s="95"/>
-      <c r="E207" s="95"/>
-      <c r="F207" s="95"/>
-      <c r="G207" s="95"/>
-      <c r="H207" s="95"/>
-      <c r="I207" s="95"/>
-      <c r="J207" s="95"/>
-      <c r="K207" s="95"/>
-      <c r="L207" s="95"/>
-      <c r="M207" s="95"/>
-      <c r="N207" s="95"/>
-      <c r="O207" s="96"/>
+      <c r="B207" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C207" s="92"/>
+      <c r="D207" s="92"/>
+      <c r="E207" s="92"/>
+      <c r="F207" s="92"/>
+      <c r="G207" s="92"/>
+      <c r="H207" s="92"/>
+      <c r="I207" s="92"/>
+      <c r="J207" s="92"/>
+      <c r="K207" s="92"/>
+      <c r="L207" s="92"/>
+      <c r="M207" s="92"/>
+      <c r="N207" s="92"/>
+      <c r="O207" s="93"/>
     </row>
     <row r="208" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B208" s="97"/>
-      <c r="C208" s="98"/>
-      <c r="D208" s="98"/>
-      <c r="E208" s="98"/>
-      <c r="F208" s="98"/>
-      <c r="G208" s="98"/>
-      <c r="H208" s="98"/>
-      <c r="I208" s="98"/>
-      <c r="J208" s="98"/>
-      <c r="K208" s="98"/>
-      <c r="L208" s="98"/>
-      <c r="M208" s="98"/>
-      <c r="N208" s="98"/>
-      <c r="O208" s="99"/>
+      <c r="B208" s="94"/>
+      <c r="C208" s="95"/>
+      <c r="D208" s="95"/>
+      <c r="E208" s="95"/>
+      <c r="F208" s="95"/>
+      <c r="G208" s="95"/>
+      <c r="H208" s="95"/>
+      <c r="I208" s="95"/>
+      <c r="J208" s="95"/>
+      <c r="K208" s="95"/>
+      <c r="L208" s="95"/>
+      <c r="M208" s="95"/>
+      <c r="N208" s="95"/>
+      <c r="O208" s="96"/>
     </row>
     <row r="211" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B211" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="212" spans="2:18" x14ac:dyDescent="0.4">
@@ -18214,17 +18299,17 @@
     </row>
     <row r="213" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B213" s="22"/>
-      <c r="C213" s="102" t="s">
-        <v>161</v>
-      </c>
-      <c r="D213" s="102"/>
-      <c r="E213" s="102"/>
-      <c r="F213" s="102"/>
-      <c r="G213" s="102"/>
-      <c r="H213" s="102"/>
-      <c r="I213" s="102"/>
-      <c r="J213" s="102"/>
-      <c r="K213" s="102"/>
+      <c r="C213" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D213" s="98"/>
+      <c r="E213" s="98"/>
+      <c r="F213" s="98"/>
+      <c r="G213" s="98"/>
+      <c r="H213" s="98"/>
+      <c r="I213" s="98"/>
+      <c r="J213" s="98"/>
+      <c r="K213" s="98"/>
       <c r="L213" s="23"/>
       <c r="M213" s="23"/>
       <c r="N213" s="23"/>
@@ -18232,15 +18317,15 @@
     </row>
     <row r="214" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B214" s="22"/>
-      <c r="C214" s="102"/>
-      <c r="D214" s="102"/>
-      <c r="E214" s="102"/>
-      <c r="F214" s="102"/>
-      <c r="G214" s="102"/>
-      <c r="H214" s="102"/>
-      <c r="I214" s="102"/>
-      <c r="J214" s="102"/>
-      <c r="K214" s="102"/>
+      <c r="C214" s="98"/>
+      <c r="D214" s="98"/>
+      <c r="E214" s="98"/>
+      <c r="F214" s="98"/>
+      <c r="G214" s="98"/>
+      <c r="H214" s="98"/>
+      <c r="I214" s="98"/>
+      <c r="J214" s="98"/>
+      <c r="K214" s="98"/>
       <c r="L214" s="23"/>
       <c r="M214" s="23"/>
       <c r="N214" s="23"/>
@@ -18248,20 +18333,20 @@
     </row>
     <row r="215" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B215" s="22"/>
-      <c r="C215" s="102"/>
-      <c r="D215" s="102"/>
-      <c r="E215" s="102"/>
-      <c r="F215" s="102"/>
-      <c r="G215" s="102"/>
-      <c r="H215" s="102"/>
-      <c r="I215" s="102"/>
-      <c r="J215" s="102"/>
-      <c r="K215" s="102"/>
+      <c r="C215" s="98"/>
+      <c r="D215" s="98"/>
+      <c r="E215" s="98"/>
+      <c r="F215" s="98"/>
+      <c r="G215" s="98"/>
+      <c r="H215" s="98"/>
+      <c r="I215" s="98"/>
+      <c r="J215" s="98"/>
+      <c r="K215" s="98"/>
       <c r="L215" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M215" s="64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N215" s="30"/>
       <c r="O215" s="24"/>
@@ -18285,16 +18370,16 @@
     <row r="217" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B217" s="22"/>
       <c r="C217" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D217" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E217" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F217" s="49" t="s">
         <v>162</v>
-      </c>
-      <c r="D217" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E217" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F217" s="49" t="s">
-        <v>164</v>
       </c>
       <c r="G217" s="34"/>
       <c r="H217" s="34"/>
@@ -18324,14 +18409,14 @@
     </row>
     <row r="219" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B219" s="22"/>
-      <c r="C219" s="103" t="s">
-        <v>260</v>
-      </c>
-      <c r="D219" s="103"/>
-      <c r="E219" s="103"/>
-      <c r="F219" s="103"/>
-      <c r="G219" s="103"/>
-      <c r="H219" s="103"/>
+      <c r="C219" s="97" t="s">
+        <v>284</v>
+      </c>
+      <c r="D219" s="97"/>
+      <c r="E219" s="97"/>
+      <c r="F219" s="97"/>
+      <c r="G219" s="97"/>
+      <c r="H219" s="97"/>
       <c r="I219" s="31"/>
       <c r="J219" s="31"/>
       <c r="K219" s="31"/>
@@ -18342,12 +18427,12 @@
     </row>
     <row r="220" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B220" s="18"/>
-      <c r="C220" s="103"/>
-      <c r="D220" s="103"/>
-      <c r="E220" s="103"/>
-      <c r="F220" s="103"/>
-      <c r="G220" s="103"/>
-      <c r="H220" s="103"/>
+      <c r="C220" s="97"/>
+      <c r="D220" s="97"/>
+      <c r="E220" s="97"/>
+      <c r="F220" s="97"/>
+      <c r="G220" s="97"/>
+      <c r="H220" s="97"/>
       <c r="I220" s="20"/>
       <c r="J220" s="20"/>
       <c r="K220" s="20"/>
@@ -18358,12 +18443,12 @@
     </row>
     <row r="221" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B221" s="18"/>
-      <c r="C221" s="104"/>
-      <c r="D221" s="104"/>
-      <c r="E221" s="104"/>
-      <c r="F221" s="104"/>
-      <c r="G221" s="104"/>
-      <c r="H221" s="104"/>
+      <c r="C221" s="143"/>
+      <c r="D221" s="143"/>
+      <c r="E221" s="143"/>
+      <c r="F221" s="143"/>
+      <c r="G221" s="143"/>
+      <c r="H221" s="143"/>
       <c r="I221" s="20"/>
       <c r="J221" s="20"/>
       <c r="K221" s="20"/>
@@ -18374,26 +18459,26 @@
     </row>
     <row r="222" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B222" s="18"/>
-      <c r="C222" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="D222" s="91"/>
-      <c r="E222" s="91"/>
-      <c r="F222" s="100"/>
-      <c r="G222" s="100"/>
-      <c r="H222" s="100"/>
-      <c r="I222" s="100"/>
-      <c r="J222" s="100"/>
-      <c r="K222" s="100"/>
-      <c r="L222" s="100"/>
-      <c r="M222" s="100"/>
-      <c r="N222" s="100"/>
+      <c r="C222" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="D222" s="144"/>
+      <c r="E222" s="144"/>
+      <c r="F222" s="145"/>
+      <c r="G222" s="145"/>
+      <c r="H222" s="145"/>
+      <c r="I222" s="145"/>
+      <c r="J222" s="145"/>
+      <c r="K222" s="145"/>
+      <c r="L222" s="145"/>
+      <c r="M222" s="145"/>
+      <c r="N222" s="145"/>
       <c r="O222" s="61"/>
     </row>
     <row r="223" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B223" s="18"/>
-      <c r="C223" s="92"/>
-      <c r="D223" s="93"/>
+      <c r="C223" s="134"/>
+      <c r="D223" s="135"/>
       <c r="E223" s="48"/>
       <c r="F223" s="65"/>
       <c r="G223" s="65"/>
@@ -18422,16 +18507,16 @@
       <c r="N224" s="65"/>
       <c r="O224" s="61"/>
       <c r="R224" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B225" s="18"/>
-      <c r="C225" s="91" t="s">
-        <v>248</v>
-      </c>
-      <c r="D225" s="91"/>
-      <c r="E225" s="91"/>
+      <c r="C225" s="144" t="s">
+        <v>246</v>
+      </c>
+      <c r="D225" s="144"/>
+      <c r="E225" s="144"/>
       <c r="F225" s="65"/>
       <c r="G225" s="65"/>
       <c r="H225" s="65"/>
@@ -18443,13 +18528,13 @@
       <c r="N225" s="65"/>
       <c r="O225" s="61"/>
       <c r="R225" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B226" s="18"/>
-      <c r="C226" s="92"/>
-      <c r="D226" s="93"/>
+      <c r="C226" s="134"/>
+      <c r="D226" s="135"/>
       <c r="E226" s="48"/>
       <c r="F226" s="65"/>
       <c r="G226" s="65"/>
@@ -18462,7 +18547,7 @@
       <c r="N226" s="65"/>
       <c r="O226" s="61"/>
       <c r="R226" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="2:18" x14ac:dyDescent="0.4">
@@ -18483,111 +18568,111 @@
     </row>
     <row r="228" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B228" s="18"/>
-      <c r="C228" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="D228" s="91"/>
-      <c r="E228" s="91"/>
-      <c r="F228" s="100"/>
-      <c r="G228" s="100"/>
-      <c r="H228" s="100"/>
-      <c r="I228" s="100"/>
-      <c r="J228" s="100"/>
-      <c r="K228" s="100"/>
-      <c r="L228" s="100"/>
-      <c r="M228" s="100"/>
-      <c r="N228" s="100"/>
+      <c r="C228" s="144" t="s">
+        <v>94</v>
+      </c>
+      <c r="D228" s="144"/>
+      <c r="E228" s="144"/>
+      <c r="F228" s="145"/>
+      <c r="G228" s="145"/>
+      <c r="H228" s="145"/>
+      <c r="I228" s="145"/>
+      <c r="J228" s="145"/>
+      <c r="K228" s="145"/>
+      <c r="L228" s="145"/>
+      <c r="M228" s="145"/>
+      <c r="N228" s="145"/>
       <c r="O228" s="19"/>
     </row>
     <row r="229" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B229" s="18"/>
-      <c r="C229" s="92"/>
-      <c r="D229" s="93"/>
+      <c r="C229" s="134"/>
+      <c r="D229" s="135"/>
       <c r="E229" s="48"/>
-      <c r="F229" s="100"/>
-      <c r="G229" s="100"/>
-      <c r="H229" s="100"/>
-      <c r="I229" s="100"/>
-      <c r="J229" s="100"/>
-      <c r="K229" s="100"/>
-      <c r="L229" s="100"/>
-      <c r="M229" s="100"/>
-      <c r="N229" s="100"/>
+      <c r="F229" s="145"/>
+      <c r="G229" s="145"/>
+      <c r="H229" s="145"/>
+      <c r="I229" s="145"/>
+      <c r="J229" s="145"/>
+      <c r="K229" s="145"/>
+      <c r="L229" s="145"/>
+      <c r="M229" s="145"/>
+      <c r="N229" s="145"/>
       <c r="O229" s="19"/>
     </row>
     <row r="230" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B230" s="18"/>
-      <c r="C230" s="91"/>
-      <c r="D230" s="91"/>
-      <c r="E230" s="91"/>
-      <c r="F230" s="101"/>
-      <c r="G230" s="100"/>
-      <c r="H230" s="100"/>
-      <c r="I230" s="100"/>
-      <c r="J230" s="100"/>
-      <c r="K230" s="100"/>
-      <c r="L230" s="100"/>
-      <c r="M230" s="100"/>
-      <c r="N230" s="100"/>
+      <c r="C230" s="144"/>
+      <c r="D230" s="144"/>
+      <c r="E230" s="144"/>
+      <c r="F230" s="148"/>
+      <c r="G230" s="145"/>
+      <c r="H230" s="145"/>
+      <c r="I230" s="145"/>
+      <c r="J230" s="145"/>
+      <c r="K230" s="145"/>
+      <c r="L230" s="145"/>
+      <c r="M230" s="145"/>
+      <c r="N230" s="145"/>
       <c r="O230" s="19"/>
     </row>
     <row r="231" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B231" s="18"/>
-      <c r="C231" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="D231" s="91"/>
-      <c r="E231" s="91"/>
-      <c r="F231" s="100"/>
-      <c r="G231" s="100"/>
-      <c r="H231" s="100"/>
-      <c r="I231" s="100"/>
-      <c r="J231" s="100"/>
-      <c r="K231" s="100"/>
-      <c r="L231" s="100"/>
-      <c r="M231" s="100"/>
-      <c r="N231" s="100"/>
+      <c r="C231" s="144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="144"/>
+      <c r="E231" s="144"/>
+      <c r="F231" s="145"/>
+      <c r="G231" s="145"/>
+      <c r="H231" s="145"/>
+      <c r="I231" s="145"/>
+      <c r="J231" s="145"/>
+      <c r="K231" s="145"/>
+      <c r="L231" s="145"/>
+      <c r="M231" s="145"/>
+      <c r="N231" s="145"/>
       <c r="O231" s="19"/>
     </row>
     <row r="232" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B232" s="18"/>
-      <c r="C232" s="100"/>
-      <c r="D232" s="100"/>
+      <c r="C232" s="145"/>
+      <c r="D232" s="145"/>
       <c r="E232" s="48"/>
-      <c r="F232" s="100"/>
-      <c r="G232" s="100"/>
-      <c r="H232" s="100"/>
-      <c r="I232" s="100"/>
-      <c r="J232" s="100"/>
-      <c r="K232" s="100"/>
-      <c r="L232" s="100"/>
-      <c r="M232" s="100"/>
-      <c r="N232" s="100"/>
+      <c r="F232" s="145"/>
+      <c r="G232" s="145"/>
+      <c r="H232" s="145"/>
+      <c r="I232" s="145"/>
+      <c r="J232" s="145"/>
+      <c r="K232" s="145"/>
+      <c r="L232" s="145"/>
+      <c r="M232" s="145"/>
+      <c r="N232" s="145"/>
       <c r="O232" s="19"/>
     </row>
     <row r="233" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B233" s="18"/>
-      <c r="C233" s="91"/>
-      <c r="D233" s="91"/>
-      <c r="E233" s="91"/>
-      <c r="F233" s="100"/>
-      <c r="G233" s="100"/>
-      <c r="H233" s="100"/>
-      <c r="I233" s="100"/>
-      <c r="J233" s="100"/>
-      <c r="K233" s="100"/>
-      <c r="L233" s="100"/>
-      <c r="M233" s="100"/>
-      <c r="N233" s="100"/>
+      <c r="C233" s="144"/>
+      <c r="D233" s="144"/>
+      <c r="E233" s="144"/>
+      <c r="F233" s="145"/>
+      <c r="G233" s="145"/>
+      <c r="H233" s="145"/>
+      <c r="I233" s="145"/>
+      <c r="J233" s="145"/>
+      <c r="K233" s="145"/>
+      <c r="L233" s="145"/>
+      <c r="M233" s="145"/>
+      <c r="N233" s="145"/>
       <c r="O233" s="19"/>
     </row>
     <row r="234" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B234" s="18"/>
-      <c r="C234" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="D234" s="91"/>
-      <c r="E234" s="91"/>
+      <c r="C234" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="D234" s="144"/>
+      <c r="E234" s="144"/>
       <c r="F234" s="20"/>
       <c r="G234" s="20"/>
       <c r="H234" s="20"/>
@@ -18601,8 +18686,8 @@
     </row>
     <row r="235" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B235" s="18"/>
-      <c r="C235" s="92"/>
-      <c r="D235" s="93"/>
+      <c r="C235" s="134"/>
+      <c r="D235" s="135"/>
       <c r="E235" s="48"/>
       <c r="F235" s="20"/>
       <c r="G235" s="20"/>
@@ -18650,7 +18735,7 @@
     <row r="238" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B238" s="18"/>
       <c r="C238" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D238" s="20"/>
       <c r="E238" s="20"/>
@@ -18682,127 +18767,81 @@
       <c r="O239" s="19"/>
     </row>
     <row r="240" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B240" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="C240" s="95"/>
-      <c r="D240" s="95"/>
-      <c r="E240" s="95"/>
-      <c r="F240" s="95"/>
-      <c r="G240" s="95"/>
-      <c r="H240" s="95"/>
-      <c r="I240" s="95"/>
-      <c r="J240" s="95"/>
-      <c r="K240" s="95"/>
-      <c r="L240" s="95"/>
-      <c r="M240" s="95"/>
-      <c r="N240" s="95"/>
-      <c r="O240" s="96"/>
+      <c r="B240" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C240" s="92"/>
+      <c r="D240" s="92"/>
+      <c r="E240" s="92"/>
+      <c r="F240" s="92"/>
+      <c r="G240" s="92"/>
+      <c r="H240" s="92"/>
+      <c r="I240" s="92"/>
+      <c r="J240" s="92"/>
+      <c r="K240" s="92"/>
+      <c r="L240" s="92"/>
+      <c r="M240" s="92"/>
+      <c r="N240" s="92"/>
+      <c r="O240" s="93"/>
     </row>
     <row r="241" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B241" s="97"/>
-      <c r="C241" s="98"/>
-      <c r="D241" s="98"/>
-      <c r="E241" s="98"/>
-      <c r="F241" s="98"/>
-      <c r="G241" s="98"/>
-      <c r="H241" s="98"/>
-      <c r="I241" s="98"/>
-      <c r="J241" s="98"/>
-      <c r="K241" s="98"/>
-      <c r="L241" s="98"/>
-      <c r="M241" s="98"/>
-      <c r="N241" s="98"/>
-      <c r="O241" s="99"/>
+      <c r="B241" s="94"/>
+      <c r="C241" s="95"/>
+      <c r="D241" s="95"/>
+      <c r="E241" s="95"/>
+      <c r="F241" s="95"/>
+      <c r="G241" s="95"/>
+      <c r="H241" s="95"/>
+      <c r="I241" s="95"/>
+      <c r="J241" s="95"/>
+      <c r="K241" s="95"/>
+      <c r="L241" s="95"/>
+      <c r="M241" s="95"/>
+      <c r="N241" s="95"/>
+      <c r="O241" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="B54:O55"/>
-    <mergeCell ref="C39:F41"/>
-    <mergeCell ref="C60:K62"/>
-    <mergeCell ref="C33:K35"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C6:K8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B27:O28"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="L72:L74"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="K75:K77"/>
-    <mergeCell ref="L75:L77"/>
-    <mergeCell ref="B67:D69"/>
-    <mergeCell ref="E67:F69"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="J72:J74"/>
-    <mergeCell ref="K72:K74"/>
-    <mergeCell ref="L78:L80"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="K78:K80"/>
-    <mergeCell ref="L84:L86"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="K87:K89"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="K84:K86"/>
-    <mergeCell ref="B91:O92"/>
-    <mergeCell ref="C97:K99"/>
-    <mergeCell ref="C103:F105"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="B118:O119"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="B145:O146"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="K133:N133"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="C124:K126"/>
-    <mergeCell ref="C130:F132"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="K135:N135"/>
-    <mergeCell ref="C151:K153"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="K134:N134"/>
+    <mergeCell ref="C234:E234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="B240:O241"/>
+    <mergeCell ref="C231:E231"/>
+    <mergeCell ref="F231:N231"/>
+    <mergeCell ref="C232:D232"/>
+    <mergeCell ref="F232:N232"/>
+    <mergeCell ref="C233:E233"/>
+    <mergeCell ref="F233:N233"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:N228"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="F229:N229"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:N230"/>
+    <mergeCell ref="C213:K215"/>
+    <mergeCell ref="C219:H221"/>
+    <mergeCell ref="C222:E222"/>
+    <mergeCell ref="F222:N222"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="B207:O208"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="F197:N197"/>
+    <mergeCell ref="F198:N198"/>
+    <mergeCell ref="C199:E199"/>
+    <mergeCell ref="F199:N199"/>
+    <mergeCell ref="C194:E194"/>
+    <mergeCell ref="F194:N194"/>
+    <mergeCell ref="F195:N195"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="F196:N196"/>
     <mergeCell ref="F165:N165"/>
     <mergeCell ref="C166:E166"/>
     <mergeCell ref="F166:N166"/>
@@ -18822,46 +18861,92 @@
     <mergeCell ref="C165:E165"/>
     <mergeCell ref="C161:E161"/>
     <mergeCell ref="C162:E162"/>
-    <mergeCell ref="B207:O208"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="F197:N197"/>
-    <mergeCell ref="F198:N198"/>
-    <mergeCell ref="C199:E199"/>
-    <mergeCell ref="F199:N199"/>
-    <mergeCell ref="C194:E194"/>
-    <mergeCell ref="F194:N194"/>
-    <mergeCell ref="F195:N195"/>
-    <mergeCell ref="C196:E196"/>
-    <mergeCell ref="F196:N196"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:N228"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="F229:N229"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:N230"/>
-    <mergeCell ref="C213:K215"/>
-    <mergeCell ref="C219:H221"/>
-    <mergeCell ref="C222:E222"/>
-    <mergeCell ref="F222:N222"/>
-    <mergeCell ref="C223:D223"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C234:E234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="B240:O241"/>
-    <mergeCell ref="C231:E231"/>
-    <mergeCell ref="F231:N231"/>
-    <mergeCell ref="C232:D232"/>
-    <mergeCell ref="F232:N232"/>
-    <mergeCell ref="C233:E233"/>
-    <mergeCell ref="F233:N233"/>
+    <mergeCell ref="C151:K153"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="K134:N134"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="B145:O146"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="K133:N133"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="C124:K126"/>
+    <mergeCell ref="C130:F132"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="K135:N135"/>
+    <mergeCell ref="B91:O92"/>
+    <mergeCell ref="C97:K99"/>
+    <mergeCell ref="C103:F105"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="B118:O119"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="L84:L86"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="K87:K89"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="K84:K86"/>
+    <mergeCell ref="L78:L80"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="K78:K80"/>
+    <mergeCell ref="L72:L74"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="K75:K77"/>
+    <mergeCell ref="L75:L77"/>
+    <mergeCell ref="B67:D69"/>
+    <mergeCell ref="E67:F69"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="J72:J74"/>
+    <mergeCell ref="K72:K74"/>
+    <mergeCell ref="B54:O55"/>
+    <mergeCell ref="C39:F41"/>
+    <mergeCell ref="C60:K62"/>
+    <mergeCell ref="C33:K35"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C6:K8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B27:O28"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
